--- a/Model data/Model_data_RER_1995.xlsx
+++ b/Model data/Model_data_RER_1995.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aaudk-my.sharepoint.com/personal/lp82ps_id_aau_dk/Documents/Skrivebord/PhD Aalborg/SFCIO-workingpaper-model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_D27CB465C3574AFC124848F17AEF2BCE07CBBD92" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B31BFCD8-C5B3-42C2-8DDF-06780F1C7AF9}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_BDEC5676C3574AFC124848FFCAE93CA807CB5A4F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{147A9D21-A84D-4815-9092-AFA305D70E8E}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -829,7 +829,7 @@
   <dimension ref="A1:EO26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1273,31 +1273,31 @@
     </row>
     <row r="2" spans="1:145" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0.9993355089537187</v>
+        <v>1.023640995157779</v>
       </c>
       <c r="B2">
-        <v>1.4929193697109902</v>
+        <v>1.5292296286972593</v>
       </c>
       <c r="C2">
-        <v>0.78846295500636765</v>
+        <v>0.80763967323925023</v>
       </c>
       <c r="D2">
-        <v>0.82566379546404078</v>
+        <v>0.84574529943346732</v>
       </c>
       <c r="E2">
-        <v>0.79688292998791044</v>
+        <v>0.81626443588611552</v>
       </c>
       <c r="F2">
-        <v>1.4991115938722404</v>
+        <v>1.5355724579531702</v>
       </c>
       <c r="G2">
-        <v>0.88487436927966301</v>
+        <v>0.9063959719668031</v>
       </c>
       <c r="H2">
-        <v>1.0189693519711462</v>
+        <v>1.0437523655884895</v>
       </c>
       <c r="I2">
-        <v>0.636370619736774</v>
+        <v>0.65184820752026529</v>
       </c>
       <c r="J2">
         <v>4.4047893273060038E-2</v>
@@ -1309,7 +1309,7 @@
         <v>0.3586072257928451</v>
       </c>
       <c r="M2">
-        <v>0.49963768536294151</v>
+        <v>0.4996376853629414</v>
       </c>
       <c r="N2">
         <v>0.29973160561562817</v>
@@ -1318,13 +1318,13 @@
         <v>0.18128268718657917</v>
       </c>
       <c r="P2">
-        <v>0.57281207080057861</v>
+        <v>0.57281207080057872</v>
       </c>
       <c r="Q2">
         <v>3.838952747397438E-2</v>
       </c>
       <c r="R2">
-        <v>0.1045509786209604</v>
+        <v>0.10455097944680855</v>
       </c>
       <c r="S2">
         <v>-2.784438324131246</v>
@@ -1408,16 +1408,16 @@
         <v>-0.94616827196015696</v>
       </c>
       <c r="AT2">
-        <v>-0.58191318919309054</v>
+        <v>-0.58191318919309076</v>
       </c>
       <c r="AU2">
-        <v>-1.7456380912891427</v>
+        <v>-1.7456380912891429</v>
       </c>
       <c r="AV2">
-        <v>-1.779454258810043</v>
+        <v>-1.7794542588100433</v>
       </c>
       <c r="AW2">
-        <v>-1.2191153784460509</v>
+        <v>-1.2191153784460511</v>
       </c>
       <c r="AX2">
         <v>-0.83249444697154817</v>
@@ -1426,13 +1426,13 @@
         <v>-0.6682251112692974</v>
       </c>
       <c r="AZ2">
-        <v>-0.89463340258885016</v>
+        <v>-0.89463340258885038</v>
       </c>
       <c r="BA2">
-        <v>-1.7122362139999245</v>
+        <v>-1.7122362139999248</v>
       </c>
       <c r="BB2">
-        <v>-1.3335660052065077</v>
+        <v>-1.3335660052065079</v>
       </c>
       <c r="BC2">
         <v>-0.61623592049346065</v>
@@ -1489,37 +1489,37 @@
         <v>-1.8220570153373239</v>
       </c>
       <c r="BU2">
-        <v>-0.62858407224841994</v>
+        <v>-0.62858407224842017</v>
       </c>
       <c r="BV2">
-        <v>-1.2926893403990798</v>
+        <v>-1.29268934039908</v>
       </c>
       <c r="BW2">
-        <v>-1.8106408190865895</v>
+        <v>-1.8106408190865897</v>
       </c>
       <c r="BX2">
-        <v>-0.89059190131942512</v>
+        <v>-0.89059190131942545</v>
       </c>
       <c r="BY2">
-        <v>-0.94959195783072203</v>
+        <v>-0.94959195783072214</v>
       </c>
       <c r="BZ2">
-        <v>-1.2703748525987952</v>
+        <v>-1.2703748525987955</v>
       </c>
       <c r="CA2">
-        <v>-0.48399325022573264</v>
+        <v>-0.48399325022573281</v>
       </c>
       <c r="CB2">
-        <v>-1.0829516917021049</v>
+        <v>-1.0829516917021051</v>
       </c>
       <c r="CC2">
-        <v>-0.75935310582714366</v>
+        <v>-0.75935310582714399</v>
       </c>
       <c r="CD2">
         <v>-4.1936702144116138</v>
       </c>
       <c r="CE2">
-        <v>-2.5986772726114888</v>
+        <v>-2.5986772726114884</v>
       </c>
       <c r="CF2">
         <v>-3.0137346709669286</v>
@@ -1531,76 +1531,76 @@
         <v>-2.643219259557394</v>
       </c>
       <c r="CI2">
-        <v>-3.2851591794567234</v>
+        <v>-3.285159179456723</v>
       </c>
       <c r="CJ2">
-        <v>-2.7628783592752382</v>
+        <v>-2.7628783592752377</v>
       </c>
       <c r="CK2">
-        <v>-2.9246701208307337</v>
+        <v>-2.9246701208307333</v>
       </c>
       <c r="CL2">
         <v>-3.2329301399420176</v>
       </c>
       <c r="CM2">
-        <v>-4.0291285887841504</v>
+        <v>-4.0291285801198065</v>
       </c>
       <c r="CN2">
-        <v>-2.926363621143671</v>
+        <v>-2.9263636127951442</v>
       </c>
       <c r="CO2">
-        <v>-2.7644919532412291</v>
+        <v>-2.7644919449757683</v>
       </c>
       <c r="CP2">
-        <v>-2.5323282845935933</v>
+        <v>-2.5323282764733803</v>
       </c>
       <c r="CQ2">
-        <v>-2.257708078891937</v>
+        <v>-2.2577080709932806</v>
       </c>
       <c r="CR2">
-        <v>-3.091194889213865</v>
+        <v>-3.0911948807934984</v>
       </c>
       <c r="CS2">
-        <v>-1.8829015376149834</v>
+        <v>-1.8829015301358496</v>
       </c>
       <c r="CT2">
-        <v>-3.0658150927715848</v>
+        <v>-3.0658150843615228</v>
       </c>
       <c r="CU2">
-        <v>-2.2190508638526736</v>
+        <v>-2.2190508559903814</v>
       </c>
       <c r="CV2">
-        <v>0.73419888076406137</v>
+        <v>0.73419888076406092</v>
       </c>
       <c r="CW2">
-        <v>0.81911347156234793</v>
+        <v>0.81911347156234782</v>
       </c>
       <c r="CX2">
-        <v>0.79701562075334131</v>
+        <v>0.79701562075334109</v>
       </c>
       <c r="CY2">
-        <v>0.74949735432047793</v>
+        <v>0.74949735432047748</v>
       </c>
       <c r="CZ2">
-        <v>0.80400856376386087</v>
+        <v>0.80400856376386054</v>
       </c>
       <c r="DA2">
-        <v>0.78799405319475913</v>
+        <v>0.78799405319475868</v>
       </c>
       <c r="DB2">
-        <v>0.78479731621726889</v>
+        <v>0.78479731621726867</v>
       </c>
       <c r="DC2">
         <v>1.4165223559265271E-2</v>
       </c>
       <c r="DD2">
-        <v>1.0756738185032759</v>
+        <v>1.0756738108780866</v>
       </c>
       <c r="DE2">
         <v>4.1264159509728244E-3</v>
       </c>
       <c r="DF2">
-        <v>1.0389217786140821</v>
+        <v>1.0389217786139984</v>
       </c>
       <c r="DG2">
         <v>2.689029526347975E-2</v>
@@ -1612,13 +1612,13 @@
         <v>1.3577228754925086E-2</v>
       </c>
       <c r="DJ2">
-        <v>1.0296586874486588</v>
+        <v>1.0296586874485767</v>
       </c>
       <c r="DK2">
         <v>9.3048474053864752E-4</v>
       </c>
       <c r="DL2">
-        <v>1.0345508222037574</v>
+        <v>1.0345508222037079</v>
       </c>
       <c r="DM2">
         <v>4.919808382221667E-3</v>
@@ -1630,28 +1630,28 @@
         <v>3.0664779596700838E-2</v>
       </c>
       <c r="DP2">
-        <v>1.0225504800886649</v>
+        <v>1.0225504800886409</v>
       </c>
       <c r="DQ2">
-        <v>0.66634135688409302</v>
+        <v>0.68254788146671042</v>
       </c>
       <c r="DR2">
-        <v>0.76970599153097186</v>
+        <v>0.78842650950594972</v>
       </c>
       <c r="DS2">
-        <v>0.74956006378804829</v>
+        <v>0.76779059960538254</v>
       </c>
       <c r="DT2">
-        <v>0.71062497213688303</v>
+        <v>0.72790854237114266</v>
       </c>
       <c r="DU2">
-        <v>0.75870420891465784</v>
+        <v>0.77715714540851</v>
       </c>
       <c r="DV2">
-        <v>0.77555599160251854</v>
+        <v>0.79441879121834169</v>
       </c>
       <c r="DW2">
-        <v>0.74926664773442297</v>
+        <v>0.76749004718988312</v>
       </c>
       <c r="DX2">
         <v>1254.372628016328</v>
@@ -1672,13 +1672,13 @@
         <v>1389.3851022354465</v>
       </c>
       <c r="ED2">
-        <v>8923.464640350936</v>
+        <v>8923.4646403509396</v>
       </c>
       <c r="EE2">
         <v>593.81964717216078</v>
       </c>
       <c r="EF2">
-        <v>33744.071279816839</v>
+        <v>33744.071300583513</v>
       </c>
       <c r="EG2">
         <v>-4.8243208496956136</v>
@@ -1710,31 +1710,31 @@
     </row>
     <row r="3" spans="1:145" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1.0255270676097226</v>
+        <v>1.0594701075410373</v>
       </c>
       <c r="B3">
-        <v>1.5962679285073671</v>
+        <v>1.6491014301766007</v>
       </c>
       <c r="C3">
-        <v>0.9439041807530355</v>
+        <v>0.97514565483066362</v>
       </c>
       <c r="D3">
-        <v>0.82336251467656074</v>
+        <v>0.85061428364132663</v>
       </c>
       <c r="E3">
-        <v>0.8043953525872729</v>
+        <v>0.83101934373854736</v>
       </c>
       <c r="F3">
-        <v>1.3446316284280215</v>
+        <v>1.3891364362465219</v>
       </c>
       <c r="G3">
-        <v>0.90463264188829162</v>
+        <v>0.93457430101812211</v>
       </c>
       <c r="H3">
-        <v>0.99519431566652905</v>
+        <v>1.0281333978838518</v>
       </c>
       <c r="I3">
-        <v>0.65498261693147586</v>
+        <v>0.67666132943264179</v>
       </c>
       <c r="J3">
         <v>4.0112734542886982E-2</v>
@@ -1746,7 +1746,7 @@
         <v>0.3928608067525074</v>
       </c>
       <c r="M3">
-        <v>0.47463658003200554</v>
+        <v>0.47463658003200559</v>
       </c>
       <c r="N3">
         <v>0.37008305000640435</v>
@@ -1761,7 +1761,7 @@
         <v>3.3992304751595287E-2</v>
       </c>
       <c r="R3">
-        <v>0.10588570272119785</v>
+        <v>0.10588570344974463</v>
       </c>
       <c r="S3">
         <v>-2.784438324131246</v>
@@ -1845,16 +1845,16 @@
         <v>-0.94616827196015696</v>
       </c>
       <c r="AT3">
-        <v>-0.58191318919309054</v>
+        <v>-0.58191318919309076</v>
       </c>
       <c r="AU3">
-        <v>-1.7456380912891427</v>
+        <v>-1.7456380912891429</v>
       </c>
       <c r="AV3">
-        <v>-1.779454258810043</v>
+        <v>-1.7794542588100433</v>
       </c>
       <c r="AW3">
-        <v>-1.2191153784460509</v>
+        <v>-1.2191153784460511</v>
       </c>
       <c r="AX3">
         <v>-0.83249444697154817</v>
@@ -1863,13 +1863,13 @@
         <v>-0.6682251112692974</v>
       </c>
       <c r="AZ3">
-        <v>-0.89463340258885016</v>
+        <v>-0.89463340258885038</v>
       </c>
       <c r="BA3">
-        <v>-1.7122362139999245</v>
+        <v>-1.7122362139999248</v>
       </c>
       <c r="BB3">
-        <v>-1.3335660052065077</v>
+        <v>-1.3335660052065079</v>
       </c>
       <c r="BC3">
         <v>-0.61623592049346065</v>
@@ -1926,37 +1926,37 @@
         <v>-1.8220570153373239</v>
       </c>
       <c r="BU3">
-        <v>-0.62858407224841994</v>
+        <v>-0.62858407224842017</v>
       </c>
       <c r="BV3">
-        <v>-1.2926893403990798</v>
+        <v>-1.29268934039908</v>
       </c>
       <c r="BW3">
-        <v>-1.8106408190865895</v>
+        <v>-1.8106408190865897</v>
       </c>
       <c r="BX3">
-        <v>-0.89059190131942512</v>
+        <v>-0.89059190131942545</v>
       </c>
       <c r="BY3">
-        <v>-0.94959195783072203</v>
+        <v>-0.94959195783072214</v>
       </c>
       <c r="BZ3">
-        <v>-1.2703748525987952</v>
+        <v>-1.2703748525987955</v>
       </c>
       <c r="CA3">
-        <v>-0.48399325022573264</v>
+        <v>-0.48399325022573281</v>
       </c>
       <c r="CB3">
-        <v>-1.0829516917021049</v>
+        <v>-1.0829516917021051</v>
       </c>
       <c r="CC3">
-        <v>-0.75935310582714366</v>
+        <v>-0.75935310582714399</v>
       </c>
       <c r="CD3">
         <v>-4.1936702144116138</v>
       </c>
       <c r="CE3">
-        <v>-2.5986772726114888</v>
+        <v>-2.5986772726114884</v>
       </c>
       <c r="CF3">
         <v>-3.0137346709669286</v>
@@ -1968,76 +1968,76 @@
         <v>-2.643219259557394</v>
       </c>
       <c r="CI3">
-        <v>-3.2851591794567234</v>
+        <v>-3.285159179456723</v>
       </c>
       <c r="CJ3">
-        <v>-2.7628783592752382</v>
+        <v>-2.7628783592752377</v>
       </c>
       <c r="CK3">
-        <v>-2.9246701208307337</v>
+        <v>-2.9246701208307333</v>
       </c>
       <c r="CL3">
         <v>-3.2329301399420176</v>
       </c>
       <c r="CM3">
-        <v>-4.0291285887841504</v>
+        <v>-4.0291285801198065</v>
       </c>
       <c r="CN3">
-        <v>-2.926363621143671</v>
+        <v>-2.9263636127951442</v>
       </c>
       <c r="CO3">
-        <v>-2.7644919532412291</v>
+        <v>-2.7644919449757683</v>
       </c>
       <c r="CP3">
-        <v>-2.5323282845935933</v>
+        <v>-2.5323282764733803</v>
       </c>
       <c r="CQ3">
-        <v>-2.257708078891937</v>
+        <v>-2.2577080709932806</v>
       </c>
       <c r="CR3">
-        <v>-3.091194889213865</v>
+        <v>-3.0911948807934984</v>
       </c>
       <c r="CS3">
-        <v>-1.8829015376149834</v>
+        <v>-1.8829015301358496</v>
       </c>
       <c r="CT3">
-        <v>-3.0658150927715848</v>
+        <v>-3.0658150843615228</v>
       </c>
       <c r="CU3">
-        <v>-2.2190508638526736</v>
+        <v>-2.2190508559903814</v>
       </c>
       <c r="CV3">
-        <v>0.74403714869871151</v>
+        <v>0.74403714869871129</v>
       </c>
       <c r="CW3">
-        <v>0.83556799305492901</v>
+        <v>0.8355679930549289</v>
       </c>
       <c r="CX3">
-        <v>0.81095936315983708</v>
+        <v>0.81095936315983685</v>
       </c>
       <c r="CY3">
-        <v>0.76171240809172946</v>
+        <v>0.76171240809172902</v>
       </c>
       <c r="CZ3">
-        <v>0.81800511174559298</v>
+        <v>0.81800511174559276</v>
       </c>
       <c r="DA3">
-        <v>0.80195697782310815</v>
+        <v>0.80195697782310782</v>
       </c>
       <c r="DB3">
-        <v>0.79966994657695467</v>
+        <v>0.79966994657695434</v>
       </c>
       <c r="DC3">
         <v>1.246631095305614E-2</v>
       </c>
       <c r="DD3">
-        <v>1.0403593228299395</v>
+        <v>1.0403593165902558</v>
       </c>
       <c r="DE3">
         <v>3.7897255359681916E-3</v>
       </c>
       <c r="DF3">
-        <v>1.0366136388220246</v>
+        <v>1.0366136388219129</v>
       </c>
       <c r="DG3">
         <v>2.0901311422083495E-2</v>
@@ -2049,13 +2049,13 @@
         <v>1.1175599208760536E-2</v>
       </c>
       <c r="DJ3">
-        <v>1.0206499167788063</v>
+        <v>1.0206499167786984</v>
       </c>
       <c r="DK3">
         <v>7.4465057410769326E-4</v>
       </c>
       <c r="DL3">
-        <v>1.0329315612823977</v>
+        <v>1.0329315612823062</v>
       </c>
       <c r="DM3">
         <v>4.8645982783357246E-3</v>
@@ -2067,28 +2067,28 @@
         <v>3.1342959950845017E-2</v>
       </c>
       <c r="DP3">
-        <v>1.0160906312487021</v>
+        <v>1.0160906312486666</v>
       </c>
       <c r="DQ3">
-        <v>0.69226069847687788</v>
+        <v>0.71517324527574677</v>
       </c>
       <c r="DR3">
-        <v>0.78023117111086804</v>
+        <v>0.8060553727660118</v>
       </c>
       <c r="DS3">
-        <v>0.75477155528561124</v>
+        <v>0.77975309097514944</v>
       </c>
       <c r="DT3">
-        <v>0.72239153033258718</v>
+        <v>0.74630134737657228</v>
       </c>
       <c r="DU3">
-        <v>0.76655423941221079</v>
+        <v>0.79192576004754989</v>
       </c>
       <c r="DV3">
-        <v>0.79331738970904686</v>
+        <v>0.81957472087814265</v>
       </c>
       <c r="DW3">
-        <v>0.76179259587063841</v>
+        <v>0.7870065149545229</v>
       </c>
       <c r="DX3">
         <v>1312.6899432732857</v>
@@ -2115,7 +2115,7 @@
         <v>772.82350610931019</v>
       </c>
       <c r="EF3">
-        <v>37639.25240838281</v>
+        <v>37639.252430359731</v>
       </c>
       <c r="EG3">
         <v>-4.8243208496956136</v>
@@ -2147,31 +2147,31 @@
     </row>
     <row r="4" spans="1:145" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>0.96005925052943186</v>
+        <v>0.98239158172577579</v>
       </c>
       <c r="B4">
-        <v>1.4847053443569085</v>
+        <v>1.5192416830889979</v>
       </c>
       <c r="C4">
-        <v>0.88916694801186769</v>
+        <v>0.90985022434183693</v>
       </c>
       <c r="D4">
-        <v>0.7671718902218867</v>
+        <v>0.78501738957779865</v>
       </c>
       <c r="E4">
-        <v>0.81346521297844276</v>
+        <v>0.8323875602636972</v>
       </c>
       <c r="F4">
-        <v>1.2849700642628004</v>
+        <v>1.314860278889324</v>
       </c>
       <c r="G4">
-        <v>0.92146840084028114</v>
+        <v>0.94290305448606637</v>
       </c>
       <c r="H4">
-        <v>0.97323284626563822</v>
+        <v>0.99587161386459544</v>
       </c>
       <c r="I4">
-        <v>0.6835696004231514</v>
+        <v>0.69947039724672233</v>
       </c>
       <c r="J4">
         <v>4.1422092380828793E-2</v>
@@ -2183,7 +2183,7 @@
         <v>0.38159617407635665</v>
       </c>
       <c r="M4">
-        <v>0.44182769208751349</v>
+        <v>0.44182769208751338</v>
       </c>
       <c r="N4">
         <v>0.4065866706055698</v>
@@ -2198,7 +2198,7 @@
         <v>2.9852633351209221E-2</v>
       </c>
       <c r="R4">
-        <v>0.1115999927970653</v>
+        <v>0.1115999934420851</v>
       </c>
       <c r="S4">
         <v>-2.784438324131246</v>
@@ -2282,16 +2282,16 @@
         <v>-0.94616827196015696</v>
       </c>
       <c r="AT4">
-        <v>-0.58191318919309054</v>
+        <v>-0.58191318919309076</v>
       </c>
       <c r="AU4">
-        <v>-1.7456380912891427</v>
+        <v>-1.7456380912891429</v>
       </c>
       <c r="AV4">
-        <v>-1.779454258810043</v>
+        <v>-1.7794542588100433</v>
       </c>
       <c r="AW4">
-        <v>-1.2191153784460509</v>
+        <v>-1.2191153784460511</v>
       </c>
       <c r="AX4">
         <v>-0.83249444697154817</v>
@@ -2300,13 +2300,13 @@
         <v>-0.6682251112692974</v>
       </c>
       <c r="AZ4">
-        <v>-0.89463340258885016</v>
+        <v>-0.89463340258885038</v>
       </c>
       <c r="BA4">
-        <v>-1.7122362139999245</v>
+        <v>-1.7122362139999248</v>
       </c>
       <c r="BB4">
-        <v>-1.3335660052065077</v>
+        <v>-1.3335660052065079</v>
       </c>
       <c r="BC4">
         <v>-0.61623592049346065</v>
@@ -2363,37 +2363,37 @@
         <v>-1.8220570153373239</v>
       </c>
       <c r="BU4">
-        <v>-0.62858407224841994</v>
+        <v>-0.62858407224842017</v>
       </c>
       <c r="BV4">
-        <v>-1.2926893403990798</v>
+        <v>-1.29268934039908</v>
       </c>
       <c r="BW4">
-        <v>-1.8106408190865895</v>
+        <v>-1.8106408190865897</v>
       </c>
       <c r="BX4">
-        <v>-0.89059190131942512</v>
+        <v>-0.89059190131942545</v>
       </c>
       <c r="BY4">
-        <v>-0.94959195783072203</v>
+        <v>-0.94959195783072214</v>
       </c>
       <c r="BZ4">
-        <v>-1.2703748525987952</v>
+        <v>-1.2703748525987955</v>
       </c>
       <c r="CA4">
-        <v>-0.48399325022573264</v>
+        <v>-0.48399325022573281</v>
       </c>
       <c r="CB4">
-        <v>-1.0829516917021049</v>
+        <v>-1.0829516917021051</v>
       </c>
       <c r="CC4">
-        <v>-0.75935310582714366</v>
+        <v>-0.75935310582714399</v>
       </c>
       <c r="CD4">
         <v>-4.1936702144116138</v>
       </c>
       <c r="CE4">
-        <v>-2.5986772726114888</v>
+        <v>-2.5986772726114884</v>
       </c>
       <c r="CF4">
         <v>-3.0137346709669286</v>
@@ -2405,76 +2405,76 @@
         <v>-2.643219259557394</v>
       </c>
       <c r="CI4">
-        <v>-3.2851591794567234</v>
+        <v>-3.285159179456723</v>
       </c>
       <c r="CJ4">
-        <v>-2.7628783592752382</v>
+        <v>-2.7628783592752377</v>
       </c>
       <c r="CK4">
-        <v>-2.9246701208307337</v>
+        <v>-2.9246701208307333</v>
       </c>
       <c r="CL4">
         <v>-3.2329301399420176</v>
       </c>
       <c r="CM4">
-        <v>-4.0291285887841504</v>
+        <v>-4.0291285801198065</v>
       </c>
       <c r="CN4">
-        <v>-2.926363621143671</v>
+        <v>-2.9263636127951442</v>
       </c>
       <c r="CO4">
-        <v>-2.7644919532412291</v>
+        <v>-2.7644919449757683</v>
       </c>
       <c r="CP4">
-        <v>-2.5323282845935933</v>
+        <v>-2.5323282764733803</v>
       </c>
       <c r="CQ4">
-        <v>-2.257708078891937</v>
+        <v>-2.2577080709932806</v>
       </c>
       <c r="CR4">
-        <v>-3.091194889213865</v>
+        <v>-3.0911948807934984</v>
       </c>
       <c r="CS4">
-        <v>-1.8829015376149834</v>
+        <v>-1.8829015301358496</v>
       </c>
       <c r="CT4">
-        <v>-3.0658150927715848</v>
+        <v>-3.0658150843615228</v>
       </c>
       <c r="CU4">
-        <v>-2.2190508638526736</v>
+        <v>-2.2190508559903814</v>
       </c>
       <c r="CV4">
-        <v>0.76255688308701874</v>
+        <v>0.76255688308701863</v>
       </c>
       <c r="CW4">
         <v>0.85157142000768971</v>
       </c>
       <c r="CX4">
-        <v>0.82712327135075969</v>
+        <v>0.82712327135075958</v>
       </c>
       <c r="CY4">
-        <v>0.78152593814408955</v>
+        <v>0.78152593814408933</v>
       </c>
       <c r="CZ4">
-        <v>0.83544030988002305</v>
+        <v>0.83544030988002294</v>
       </c>
       <c r="DA4">
-        <v>0.81694521581963953</v>
+        <v>0.81694521581963919</v>
       </c>
       <c r="DB4">
-        <v>0.82033487430763519</v>
+        <v>0.82033487430763508</v>
       </c>
       <c r="DC4">
         <v>1.2577567294602453E-2</v>
       </c>
       <c r="DD4">
-        <v>1.0045537678655527</v>
+        <v>1.004553763175043</v>
       </c>
       <c r="DE4">
         <v>3.9381721370179154E-3</v>
       </c>
       <c r="DF4">
-        <v>1.05475841041424</v>
+        <v>1.0547584104142158</v>
       </c>
       <c r="DG4">
         <v>2.0187881071383473E-2</v>
@@ -2486,13 +2486,13 @@
         <v>1.2903928555349458E-2</v>
       </c>
       <c r="DJ4">
-        <v>1.0236156609547915</v>
+        <v>1.0236156609547651</v>
       </c>
       <c r="DK4">
         <v>7.1630988690189767E-4</v>
       </c>
       <c r="DL4">
-        <v>1.0525905037362024</v>
+        <v>1.0525905037361756</v>
       </c>
       <c r="DM4">
         <v>4.732130530147656E-3</v>
@@ -2504,28 +2504,28 @@
         <v>3.2855395376840929E-2</v>
       </c>
       <c r="DP4">
-        <v>1.0412133574873712</v>
+        <v>1.0412133574873494</v>
       </c>
       <c r="DQ4">
-        <v>0.74184378542289398</v>
+        <v>0.75910012091024692</v>
       </c>
       <c r="DR4">
-        <v>0.78900814174762401</v>
+        <v>0.80736158308827111</v>
       </c>
       <c r="DS4">
-        <v>0.76514917700606655</v>
+        <v>0.78294762520193184</v>
       </c>
       <c r="DT4">
-        <v>0.74613923736048915</v>
+        <v>0.76349548756916297</v>
       </c>
       <c r="DU4">
-        <v>0.775656404565783</v>
+        <v>0.79369926568273519</v>
       </c>
       <c r="DV4">
-        <v>0.77242478769934353</v>
+        <v>0.79039247685358516</v>
       </c>
       <c r="DW4">
-        <v>0.76995412164712196</v>
+        <v>0.78786433962705094</v>
       </c>
       <c r="DX4">
         <v>1348.8009091010115</v>
@@ -2549,10 +2549,10 @@
         <v>11044.067409575826</v>
       </c>
       <c r="EE4">
-        <v>885.81438743894307</v>
+        <v>885.81438743894296</v>
       </c>
       <c r="EF4">
-        <v>40182.061349304277</v>
+        <v>40182.061371240539</v>
       </c>
       <c r="EG4">
         <v>-4.8243208496956136</v>
@@ -2584,31 +2584,31 @@
     </row>
     <row r="5" spans="1:145" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>0.8980867375131566</v>
+        <v>0.91121147344269404</v>
       </c>
       <c r="B5">
-        <v>1.4148510433274777</v>
+        <v>1.4355278282611064</v>
       </c>
       <c r="C5">
-        <v>0.87878894311449396</v>
+        <v>0.89163165900640529</v>
       </c>
       <c r="D5">
-        <v>0.81202699494453146</v>
+        <v>0.82389404456360738</v>
       </c>
       <c r="E5">
-        <v>0.80309488811574103</v>
+        <v>0.81483140296737711</v>
       </c>
       <c r="F5">
-        <v>1.5319675818324006</v>
+        <v>1.5543559204241035</v>
       </c>
       <c r="G5">
-        <v>0.94634668715467118</v>
+        <v>0.96017669916563875</v>
       </c>
       <c r="H5">
-        <v>0.97571096526136769</v>
+        <v>0.98997010998281176</v>
       </c>
       <c r="I5">
-        <v>0.71327893656423447</v>
+        <v>0.72370287538524714</v>
       </c>
       <c r="J5">
         <v>4.8628167259025433E-2</v>
@@ -2632,10 +2632,10 @@
         <v>0.59806738322368369</v>
       </c>
       <c r="Q5">
-        <v>2.473553635000203E-2</v>
+        <v>2.4735536350002033E-2</v>
       </c>
       <c r="R5">
-        <v>0.11764247964708091</v>
+        <v>0.11764248020946416</v>
       </c>
       <c r="S5">
         <v>-2.784438324131246</v>
@@ -2719,16 +2719,16 @@
         <v>-0.94616827196015696</v>
       </c>
       <c r="AT5">
-        <v>-0.58191318919309054</v>
+        <v>-0.58191318919309076</v>
       </c>
       <c r="AU5">
-        <v>-1.7456380912891427</v>
+        <v>-1.7456380912891429</v>
       </c>
       <c r="AV5">
-        <v>-1.779454258810043</v>
+        <v>-1.7794542588100433</v>
       </c>
       <c r="AW5">
-        <v>-1.2191153784460509</v>
+        <v>-1.2191153784460511</v>
       </c>
       <c r="AX5">
         <v>-0.83249444697154817</v>
@@ -2737,13 +2737,13 @@
         <v>-0.6682251112692974</v>
       </c>
       <c r="AZ5">
-        <v>-0.89463340258885016</v>
+        <v>-0.89463340258885038</v>
       </c>
       <c r="BA5">
-        <v>-1.7122362139999245</v>
+        <v>-1.7122362139999248</v>
       </c>
       <c r="BB5">
-        <v>-1.3335660052065077</v>
+        <v>-1.3335660052065079</v>
       </c>
       <c r="BC5">
         <v>-0.61623592049346065</v>
@@ -2800,37 +2800,37 @@
         <v>-1.8220570153373239</v>
       </c>
       <c r="BU5">
-        <v>-0.62858407224841994</v>
+        <v>-0.62858407224842017</v>
       </c>
       <c r="BV5">
-        <v>-1.2926893403990798</v>
+        <v>-1.29268934039908</v>
       </c>
       <c r="BW5">
-        <v>-1.8106408190865895</v>
+        <v>-1.8106408190865897</v>
       </c>
       <c r="BX5">
-        <v>-0.89059190131942512</v>
+        <v>-0.89059190131942545</v>
       </c>
       <c r="BY5">
-        <v>-0.94959195783072203</v>
+        <v>-0.94959195783072214</v>
       </c>
       <c r="BZ5">
-        <v>-1.2703748525987952</v>
+        <v>-1.2703748525987955</v>
       </c>
       <c r="CA5">
-        <v>-0.48399325022573264</v>
+        <v>-0.48399325022573281</v>
       </c>
       <c r="CB5">
-        <v>-1.0829516917021049</v>
+        <v>-1.0829516917021051</v>
       </c>
       <c r="CC5">
-        <v>-0.75935310582714366</v>
+        <v>-0.75935310582714399</v>
       </c>
       <c r="CD5">
         <v>-4.1936702144116138</v>
       </c>
       <c r="CE5">
-        <v>-2.5986772726114888</v>
+        <v>-2.5986772726114884</v>
       </c>
       <c r="CF5">
         <v>-3.0137346709669286</v>
@@ -2842,76 +2842,76 @@
         <v>-2.643219259557394</v>
       </c>
       <c r="CI5">
-        <v>-3.2851591794567234</v>
+        <v>-3.285159179456723</v>
       </c>
       <c r="CJ5">
-        <v>-2.7628783592752382</v>
+        <v>-2.7628783592752377</v>
       </c>
       <c r="CK5">
-        <v>-2.9246701208307337</v>
+        <v>-2.9246701208307333</v>
       </c>
       <c r="CL5">
         <v>-3.2329301399420176</v>
       </c>
       <c r="CM5">
-        <v>-4.0291285887841504</v>
+        <v>-4.0291285801198065</v>
       </c>
       <c r="CN5">
-        <v>-2.926363621143671</v>
+        <v>-2.9263636127951442</v>
       </c>
       <c r="CO5">
-        <v>-2.7644919532412291</v>
+        <v>-2.7644919449757683</v>
       </c>
       <c r="CP5">
-        <v>-2.5323282845935933</v>
+        <v>-2.5323282764733803</v>
       </c>
       <c r="CQ5">
-        <v>-2.257708078891937</v>
+        <v>-2.2577080709932806</v>
       </c>
       <c r="CR5">
-        <v>-3.091194889213865</v>
+        <v>-3.0911948807934984</v>
       </c>
       <c r="CS5">
-        <v>-1.8829015376149834</v>
+        <v>-1.8829015301358496</v>
       </c>
       <c r="CT5">
-        <v>-3.0658150927715848</v>
+        <v>-3.0658150843615228</v>
       </c>
       <c r="CU5">
-        <v>-2.2190508638526736</v>
+        <v>-2.2190508559903814</v>
       </c>
       <c r="CV5">
-        <v>0.76883617081586397</v>
+        <v>0.76883617081586375</v>
       </c>
       <c r="CW5">
-        <v>0.81678068117708968</v>
+        <v>0.81678068117708946</v>
       </c>
       <c r="CX5">
-        <v>0.80567022341155192</v>
+        <v>0.80567022341155181</v>
       </c>
       <c r="CY5">
-        <v>0.78651857269017289</v>
+        <v>0.78651857269017256</v>
       </c>
       <c r="CZ5">
-        <v>0.81082805716276807</v>
+        <v>0.81082805716276785</v>
       </c>
       <c r="DA5">
-        <v>0.80352177037857175</v>
+        <v>0.80352177037857153</v>
       </c>
       <c r="DB5">
-        <v>0.79913617561836547</v>
+        <v>0.79913617561836536</v>
       </c>
       <c r="DC5">
         <v>1.2008003074048116E-2</v>
       </c>
       <c r="DD5">
-        <v>0.98425224617716367</v>
+        <v>0.98425224232665365</v>
       </c>
       <c r="DE5">
         <v>3.0354646389363082E-3</v>
       </c>
       <c r="DF5">
-        <v>1.015377481618936</v>
+        <v>1.0153774816189067</v>
       </c>
       <c r="DG5">
         <v>2.5327724621065383E-2</v>
@@ -2923,13 +2923,13 @@
         <v>1.3630272333790083E-2</v>
       </c>
       <c r="DJ5">
-        <v>1.0063800549215232</v>
+        <v>1.0063800549214323</v>
       </c>
       <c r="DK5">
         <v>7.7223403507577725E-4</v>
       </c>
       <c r="DL5">
-        <v>1.0121005885356005</v>
+        <v>1.012100588535555</v>
       </c>
       <c r="DM5">
         <v>4.4462201723144421E-3</v>
@@ -2941,28 +2941,28 @@
         <v>2.647667655515322E-2</v>
       </c>
       <c r="DP5">
-        <v>1.0025409822636548</v>
+        <v>1.0025409822636273</v>
       </c>
       <c r="DQ5">
-        <v>0.76988613066992162</v>
+        <v>0.78113733223348081</v>
       </c>
       <c r="DR5">
-        <v>0.79282444632921922</v>
+        <v>0.80441086784278815</v>
       </c>
       <c r="DS5">
-        <v>0.78119698180960084</v>
+        <v>0.79261347830925255</v>
       </c>
       <c r="DT5">
-        <v>0.77027546507047795</v>
+        <v>0.78153235335290472</v>
       </c>
       <c r="DU5">
-        <v>0.78959464503871135</v>
+        <v>0.80113386588973767</v>
       </c>
       <c r="DV5">
-        <v>0.79970013351187852</v>
+        <v>0.81138703705554127</v>
       </c>
       <c r="DW5">
-        <v>0.78562945820256191</v>
+        <v>0.79711073138776212</v>
       </c>
       <c r="DX5">
         <v>1235.3325011697364</v>
@@ -2986,10 +2986,10 @@
         <v>10855.616743358361</v>
       </c>
       <c r="EE5">
-        <v>978.930345396029</v>
+        <v>978.93034539602888</v>
       </c>
       <c r="EF5">
-        <v>39591.21003998354</v>
+        <v>39591.210059761681</v>
       </c>
       <c r="EG5">
         <v>-4.8243208496956136</v>
@@ -3021,31 +3021,31 @@
     </row>
     <row r="6" spans="1:145" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>0.97759426806491356</v>
+        <v>0.98555853936593796</v>
       </c>
       <c r="B6">
-        <v>1.4855358916346886</v>
+        <v>1.4976382650373141</v>
       </c>
       <c r="C6">
-        <v>0.89401457559667807</v>
+        <v>0.90129793931894708</v>
       </c>
       <c r="D6">
-        <v>0.89647970863687321</v>
+        <v>0.90378315532092557</v>
       </c>
       <c r="E6">
-        <v>0.82049878328445092</v>
+        <v>0.82718322807479616</v>
       </c>
       <c r="F6">
-        <v>1.353070851563094</v>
+        <v>1.3640940579211751</v>
       </c>
       <c r="G6">
-        <v>0.97554266396803768</v>
+        <v>0.9834902212475467</v>
       </c>
       <c r="H6">
-        <v>0.99128953308170076</v>
+        <v>0.99936537705627304</v>
       </c>
       <c r="I6">
-        <v>0.74068485933299233</v>
+        <v>0.74671907877687871</v>
       </c>
       <c r="J6">
         <v>5.0274505559580462E-2</v>
@@ -3057,7 +3057,7 @@
         <v>0.47568464911579411</v>
       </c>
       <c r="M6">
-        <v>0.45127861014347753</v>
+        <v>0.45127861014347742</v>
       </c>
       <c r="N6">
         <v>0.39952122096099785</v>
@@ -3072,7 +3072,7 @@
         <v>2.9884686643023E-2</v>
       </c>
       <c r="R6">
-        <v>0.12863060112942698</v>
+        <v>0.12863060161651219</v>
       </c>
       <c r="S6">
         <v>-2.784438324131246</v>
@@ -3156,16 +3156,16 @@
         <v>-0.94616827196015696</v>
       </c>
       <c r="AT6">
-        <v>-0.58191318919309054</v>
+        <v>-0.58191318919309076</v>
       </c>
       <c r="AU6">
-        <v>-1.7456380912891427</v>
+        <v>-1.7456380912891429</v>
       </c>
       <c r="AV6">
-        <v>-1.779454258810043</v>
+        <v>-1.7794542588100433</v>
       </c>
       <c r="AW6">
-        <v>-1.2191153784460509</v>
+        <v>-1.2191153784460511</v>
       </c>
       <c r="AX6">
         <v>-0.83249444697154817</v>
@@ -3174,13 +3174,13 @@
         <v>-0.6682251112692974</v>
       </c>
       <c r="AZ6">
-        <v>-0.89463340258885016</v>
+        <v>-0.89463340258885038</v>
       </c>
       <c r="BA6">
-        <v>-1.7122362139999245</v>
+        <v>-1.7122362139999248</v>
       </c>
       <c r="BB6">
-        <v>-1.3335660052065077</v>
+        <v>-1.3335660052065079</v>
       </c>
       <c r="BC6">
         <v>-0.61623592049346065</v>
@@ -3237,37 +3237,37 @@
         <v>-1.8220570153373239</v>
       </c>
       <c r="BU6">
-        <v>-0.62858407224841994</v>
+        <v>-0.62858407224842017</v>
       </c>
       <c r="BV6">
-        <v>-1.2926893403990798</v>
+        <v>-1.29268934039908</v>
       </c>
       <c r="BW6">
-        <v>-1.8106408190865895</v>
+        <v>-1.8106408190865897</v>
       </c>
       <c r="BX6">
-        <v>-0.89059190131942512</v>
+        <v>-0.89059190131942545</v>
       </c>
       <c r="BY6">
-        <v>-0.94959195783072203</v>
+        <v>-0.94959195783072214</v>
       </c>
       <c r="BZ6">
-        <v>-1.2703748525987952</v>
+        <v>-1.2703748525987955</v>
       </c>
       <c r="CA6">
-        <v>-0.48399325022573264</v>
+        <v>-0.48399325022573281</v>
       </c>
       <c r="CB6">
-        <v>-1.0829516917021049</v>
+        <v>-1.0829516917021051</v>
       </c>
       <c r="CC6">
-        <v>-0.75935310582714366</v>
+        <v>-0.75935310582714399</v>
       </c>
       <c r="CD6">
         <v>-4.1936702144116138</v>
       </c>
       <c r="CE6">
-        <v>-2.5986772726114888</v>
+        <v>-2.5986772726114884</v>
       </c>
       <c r="CF6">
         <v>-3.0137346709669286</v>
@@ -3279,76 +3279,76 @@
         <v>-2.643219259557394</v>
       </c>
       <c r="CI6">
-        <v>-3.2851591794567234</v>
+        <v>-3.285159179456723</v>
       </c>
       <c r="CJ6">
-        <v>-2.7628783592752382</v>
+        <v>-2.7628783592752377</v>
       </c>
       <c r="CK6">
-        <v>-2.9246701208307337</v>
+        <v>-2.9246701208307333</v>
       </c>
       <c r="CL6">
         <v>-3.2329301399420176</v>
       </c>
       <c r="CM6">
-        <v>-4.0291285887841504</v>
+        <v>-4.0291285801198065</v>
       </c>
       <c r="CN6">
-        <v>-2.926363621143671</v>
+        <v>-2.9263636127951442</v>
       </c>
       <c r="CO6">
-        <v>-2.7644919532412291</v>
+        <v>-2.7644919449757683</v>
       </c>
       <c r="CP6">
-        <v>-2.5323282845935933</v>
+        <v>-2.5323282764733803</v>
       </c>
       <c r="CQ6">
-        <v>-2.257708078891937</v>
+        <v>-2.2577080709932806</v>
       </c>
       <c r="CR6">
-        <v>-3.091194889213865</v>
+        <v>-3.0911948807934984</v>
       </c>
       <c r="CS6">
-        <v>-1.8829015376149834</v>
+        <v>-1.8829015301358496</v>
       </c>
       <c r="CT6">
-        <v>-3.0658150927715848</v>
+        <v>-3.0658150843615228</v>
       </c>
       <c r="CU6">
-        <v>-2.2190508638526736</v>
+        <v>-2.2190508559903814</v>
       </c>
       <c r="CV6">
-        <v>0.77780650338310831</v>
+        <v>0.77780650338310819</v>
       </c>
       <c r="CW6">
         <v>0.79889196612626656</v>
       </c>
       <c r="CX6">
-        <v>0.79631763242071141</v>
+        <v>0.7963176324207113</v>
       </c>
       <c r="CY6">
-        <v>0.79131410448044848</v>
+        <v>0.79131410448044814</v>
       </c>
       <c r="CZ6">
-        <v>0.79964142575371944</v>
+        <v>0.79964142575371921</v>
       </c>
       <c r="DA6">
-        <v>0.80486327938028213</v>
+        <v>0.8048632793802819</v>
       </c>
       <c r="DB6">
-        <v>0.79275789519363637</v>
+        <v>0.79275789519363604</v>
       </c>
       <c r="DC6">
         <v>1.2330475251367093E-2</v>
       </c>
       <c r="DD6">
-        <v>0.96692791199084049</v>
+        <v>0.96692790900103476</v>
       </c>
       <c r="DE6">
         <v>3.290230896100792E-3</v>
       </c>
       <c r="DF6">
-        <v>0.96373260538949324</v>
+        <v>0.96373260538947414</v>
       </c>
       <c r="DG6">
         <v>2.0356490274145274E-2</v>
@@ -3360,13 +3360,13 @@
         <v>1.7237472595317896E-2</v>
       </c>
       <c r="DJ6">
-        <v>0.95600114677423687</v>
+        <v>0.95600114677418402</v>
       </c>
       <c r="DK6">
         <v>6.7432709725683557E-4</v>
       </c>
       <c r="DL6">
-        <v>0.96067193577507282</v>
+        <v>0.96067193577505838</v>
       </c>
       <c r="DM6">
         <v>4.3525903032284909E-3</v>
@@ -3378,28 +3378,28 @@
         <v>2.6104321832061572E-2</v>
       </c>
       <c r="DP6">
-        <v>0.9533928870410433</v>
+        <v>0.95339288704102176</v>
       </c>
       <c r="DQ6">
-        <v>0.79790960729530913</v>
+        <v>0.80441002492800717</v>
       </c>
       <c r="DR6">
-        <v>0.82225727116607183</v>
+        <v>0.82895604201687212</v>
       </c>
       <c r="DS6">
-        <v>0.81708946162217266</v>
+        <v>0.82374613132876584</v>
       </c>
       <c r="DT6">
-        <v>0.82104453507655806</v>
+        <v>0.82773342600117572</v>
       </c>
       <c r="DU6">
-        <v>0.825650792917484</v>
+        <v>0.83237721013321608</v>
       </c>
       <c r="DV6">
-        <v>0.87965016444356836</v>
+        <v>0.88681650408822132</v>
       </c>
       <c r="DW6">
-        <v>0.82479285429409754</v>
+        <v>0.83151228204991412</v>
       </c>
       <c r="DX6">
         <v>1265.9108146681897</v>
@@ -3426,7 +3426,7 @@
         <v>1048.8493783813055</v>
       </c>
       <c r="EF6">
-        <v>44631.856246250944</v>
+        <v>44631.856264781294</v>
       </c>
       <c r="EG6">
         <v>-4.8243208496956136</v>
@@ -3458,31 +3458,31 @@
     </row>
     <row r="7" spans="1:145" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>1.0130825778884536</v>
+        <v>1.030469000146051</v>
       </c>
       <c r="B7">
-        <v>1.5424512769224787</v>
+        <v>1.5689226720462999</v>
       </c>
       <c r="C7">
-        <v>0.92288964099280368</v>
+        <v>0.93872818105427347</v>
       </c>
       <c r="D7">
-        <v>0.8719709206896149</v>
+        <v>0.88693559874681149</v>
       </c>
       <c r="E7">
-        <v>0.85442679658170029</v>
+        <v>0.86909038412906348</v>
       </c>
       <c r="F7">
-        <v>1.0300175757843617</v>
+        <v>1.0476946347884357</v>
       </c>
       <c r="G7">
-        <v>0.94497231718018804</v>
+        <v>0.96118983793005541</v>
       </c>
       <c r="H7">
-        <v>0.96952677959079947</v>
+        <v>0.98616570157793704</v>
       </c>
       <c r="I7">
-        <v>0.74811053572738828</v>
+        <v>0.76094953676710131</v>
       </c>
       <c r="J7">
         <v>5.4107591617168445E-2</v>
@@ -3494,7 +3494,7 @@
         <v>0.4825734018674227</v>
       </c>
       <c r="M7">
-        <v>0.36459859595866906</v>
+        <v>0.364598595958669</v>
       </c>
       <c r="N7">
         <v>0.44744332148695437</v>
@@ -3509,7 +3509,7 @@
         <v>2.1560587311258685E-2</v>
       </c>
       <c r="R7">
-        <v>0.1420869192490283</v>
+        <v>0.142086919660357</v>
       </c>
       <c r="S7">
         <v>-2.784438324131246</v>
@@ -3593,16 +3593,16 @@
         <v>-0.94616827196015696</v>
       </c>
       <c r="AT7">
-        <v>-0.58191318919309054</v>
+        <v>-0.58191318919309076</v>
       </c>
       <c r="AU7">
-        <v>-1.7456380912891427</v>
+        <v>-1.7456380912891429</v>
       </c>
       <c r="AV7">
-        <v>-1.779454258810043</v>
+        <v>-1.7794542588100433</v>
       </c>
       <c r="AW7">
-        <v>-1.2191153784460509</v>
+        <v>-1.2191153784460511</v>
       </c>
       <c r="AX7">
         <v>-0.83249444697154817</v>
@@ -3611,13 +3611,13 @@
         <v>-0.6682251112692974</v>
       </c>
       <c r="AZ7">
-        <v>-0.89463340258885016</v>
+        <v>-0.89463340258885038</v>
       </c>
       <c r="BA7">
-        <v>-1.7122362139999245</v>
+        <v>-1.7122362139999248</v>
       </c>
       <c r="BB7">
-        <v>-1.3335660052065077</v>
+        <v>-1.3335660052065079</v>
       </c>
       <c r="BC7">
         <v>-0.61623592049346065</v>
@@ -3674,37 +3674,37 @@
         <v>-1.8220570153373239</v>
       </c>
       <c r="BU7">
-        <v>-0.62858407224841994</v>
+        <v>-0.62858407224842017</v>
       </c>
       <c r="BV7">
-        <v>-1.2926893403990798</v>
+        <v>-1.29268934039908</v>
       </c>
       <c r="BW7">
-        <v>-1.8106408190865895</v>
+        <v>-1.8106408190865897</v>
       </c>
       <c r="BX7">
-        <v>-0.89059190131942512</v>
+        <v>-0.89059190131942545</v>
       </c>
       <c r="BY7">
-        <v>-0.94959195783072203</v>
+        <v>-0.94959195783072214</v>
       </c>
       <c r="BZ7">
-        <v>-1.2703748525987952</v>
+        <v>-1.2703748525987955</v>
       </c>
       <c r="CA7">
-        <v>-0.48399325022573264</v>
+        <v>-0.48399325022573281</v>
       </c>
       <c r="CB7">
-        <v>-1.0829516917021049</v>
+        <v>-1.0829516917021051</v>
       </c>
       <c r="CC7">
-        <v>-0.75935310582714366</v>
+        <v>-0.75935310582714399</v>
       </c>
       <c r="CD7">
         <v>-4.1936702144116138</v>
       </c>
       <c r="CE7">
-        <v>-2.5986772726114888</v>
+        <v>-2.5986772726114884</v>
       </c>
       <c r="CF7">
         <v>-3.0137346709669286</v>
@@ -3716,61 +3716,61 @@
         <v>-2.643219259557394</v>
       </c>
       <c r="CI7">
-        <v>-3.2851591794567234</v>
+        <v>-3.285159179456723</v>
       </c>
       <c r="CJ7">
-        <v>-2.7628783592752382</v>
+        <v>-2.7628783592752377</v>
       </c>
       <c r="CK7">
-        <v>-2.9246701208307337</v>
+        <v>-2.9246701208307333</v>
       </c>
       <c r="CL7">
         <v>-3.2329301399420176</v>
       </c>
       <c r="CM7">
-        <v>-4.0291285887841504</v>
+        <v>-4.0291285801198065</v>
       </c>
       <c r="CN7">
-        <v>-2.926363621143671</v>
+        <v>-2.9263636127951442</v>
       </c>
       <c r="CO7">
-        <v>-2.7644919532412291</v>
+        <v>-2.7644919449757683</v>
       </c>
       <c r="CP7">
-        <v>-2.5323282845935933</v>
+        <v>-2.5323282764733803</v>
       </c>
       <c r="CQ7">
-        <v>-2.257708078891937</v>
+        <v>-2.2577080709932806</v>
       </c>
       <c r="CR7">
-        <v>-3.091194889213865</v>
+        <v>-3.0911948807934984</v>
       </c>
       <c r="CS7">
-        <v>-1.8829015376149834</v>
+        <v>-1.8829015301358496</v>
       </c>
       <c r="CT7">
-        <v>-3.0658150927715848</v>
+        <v>-3.0658150843615228</v>
       </c>
       <c r="CU7">
-        <v>-2.2190508638526736</v>
+        <v>-2.2190508559903814</v>
       </c>
       <c r="CV7">
-        <v>0.81241552750936274</v>
+        <v>0.81241552750936252</v>
       </c>
       <c r="CW7">
         <v>0.84553780351978081</v>
       </c>
       <c r="CX7">
-        <v>0.83721439719804336</v>
+        <v>0.83721439719804325</v>
       </c>
       <c r="CY7">
-        <v>0.81635323900988666</v>
+        <v>0.81635323900988632</v>
       </c>
       <c r="CZ7">
-        <v>0.84069596072676367</v>
+        <v>0.84069596072676345</v>
       </c>
       <c r="DA7">
-        <v>0.83681905198809614</v>
+        <v>0.83681905198809592</v>
       </c>
       <c r="DB7">
         <v>0.83075442045350345</v>
@@ -3779,13 +3779,13 @@
         <v>1.2821537733581303E-2</v>
       </c>
       <c r="DD7">
-        <v>0.99107732765507939</v>
+        <v>0.99107732523501169</v>
       </c>
       <c r="DE7">
         <v>3.591076184874331E-3</v>
       </c>
       <c r="DF7">
-        <v>0.98249308458738316</v>
+        <v>0.98249308458738005</v>
       </c>
       <c r="DG7">
         <v>1.7421385631543555E-2</v>
@@ -3797,7 +3797,7 @@
         <v>1.8455784902412755E-2</v>
       </c>
       <c r="DJ7">
-        <v>0.97470968518434165</v>
+        <v>0.97470968518433332</v>
       </c>
       <c r="DK7">
         <v>5.9630079387751583E-4</v>
@@ -3815,28 +3815,28 @@
         <v>2.8193544746145223E-2</v>
       </c>
       <c r="DP7">
-        <v>0.97871380710924549</v>
+        <v>0.97871380710924283</v>
       </c>
       <c r="DQ7">
-        <v>0.80589894962397168</v>
+        <v>0.81972970909885001</v>
       </c>
       <c r="DR7">
-        <v>0.84608392276362332</v>
+        <v>0.86060433074181208</v>
       </c>
       <c r="DS7">
-        <v>0.83550659760605317</v>
+        <v>0.84984547858381565</v>
       </c>
       <c r="DT7">
-        <v>0.82340358637037303</v>
+        <v>0.83753475667526656</v>
       </c>
       <c r="DU7">
-        <v>0.84322841263280635</v>
+        <v>0.85769981463065181</v>
       </c>
       <c r="DV7">
-        <v>0.87440989552329529</v>
+        <v>0.8894164310235666</v>
       </c>
       <c r="DW7">
-        <v>0.8345009995229824</v>
+        <v>0.84882262252664398</v>
       </c>
       <c r="DX7">
         <v>1406.7944603275594</v>
@@ -3863,7 +3863,7 @@
         <v>1438.465626536954</v>
       </c>
       <c r="EF7">
-        <v>62418.180517198649</v>
+        <v>62418.180537819353</v>
       </c>
       <c r="EG7">
         <v>-4.8243208496956136</v>
@@ -3895,31 +3895,31 @@
     </row>
     <row r="8" spans="1:145" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>1.0630440446008869</v>
+        <v>1.0697808134620788</v>
       </c>
       <c r="B8">
-        <v>1.6063573914094862</v>
+        <v>1.616537269194753</v>
       </c>
       <c r="C8">
-        <v>1.025440344893698</v>
+        <v>1.0319388099569053</v>
       </c>
       <c r="D8">
-        <v>0.83632775996861586</v>
+        <v>0.8416277725501472</v>
       </c>
       <c r="E8">
-        <v>0.90278924702243346</v>
+        <v>0.90851044222450339</v>
       </c>
       <c r="F8">
-        <v>1.0501058237260752</v>
+        <v>1.0567605999323519</v>
       </c>
       <c r="G8">
-        <v>0.95727965494135936</v>
+        <v>0.9633461691216656</v>
       </c>
       <c r="H8">
-        <v>1.0040126572816297</v>
+        <v>1.0103753298728269</v>
       </c>
       <c r="I8">
-        <v>0.77789263422484978</v>
+        <v>0.78282233112544164</v>
       </c>
       <c r="J8">
         <v>5.6445404000644232E-2</v>
@@ -3931,7 +3931,7 @@
         <v>0.51676695983791998</v>
       </c>
       <c r="M8">
-        <v>0.30834468549582467</v>
+        <v>0.30834468549582461</v>
       </c>
       <c r="N8">
         <v>0.45605013065937983</v>
@@ -3946,7 +3946,7 @@
         <v>3.0394070654140563E-2</v>
       </c>
       <c r="R8">
-        <v>0.15474981268821414</v>
+        <v>0.1547498130114206</v>
       </c>
       <c r="S8">
         <v>-2.784438324131246</v>
@@ -4030,16 +4030,16 @@
         <v>-0.94616827196015696</v>
       </c>
       <c r="AT8">
-        <v>-0.58191318919309054</v>
+        <v>-0.58191318919309076</v>
       </c>
       <c r="AU8">
-        <v>-1.7456380912891427</v>
+        <v>-1.7456380912891429</v>
       </c>
       <c r="AV8">
-        <v>-1.779454258810043</v>
+        <v>-1.7794542588100433</v>
       </c>
       <c r="AW8">
-        <v>-1.2191153784460509</v>
+        <v>-1.2191153784460511</v>
       </c>
       <c r="AX8">
         <v>-0.83249444697154817</v>
@@ -4048,13 +4048,13 @@
         <v>-0.6682251112692974</v>
       </c>
       <c r="AZ8">
-        <v>-0.89463340258885016</v>
+        <v>-0.89463340258885038</v>
       </c>
       <c r="BA8">
-        <v>-1.7122362139999245</v>
+        <v>-1.7122362139999248</v>
       </c>
       <c r="BB8">
-        <v>-1.3335660052065077</v>
+        <v>-1.3335660052065079</v>
       </c>
       <c r="BC8">
         <v>-0.61623592049346065</v>
@@ -4111,37 +4111,37 @@
         <v>-1.8220570153373239</v>
       </c>
       <c r="BU8">
-        <v>-0.62858407224841994</v>
+        <v>-0.62858407224842017</v>
       </c>
       <c r="BV8">
-        <v>-1.2926893403990798</v>
+        <v>-1.29268934039908</v>
       </c>
       <c r="BW8">
-        <v>-1.8106408190865895</v>
+        <v>-1.8106408190865897</v>
       </c>
       <c r="BX8">
-        <v>-0.89059190131942512</v>
+        <v>-0.89059190131942545</v>
       </c>
       <c r="BY8">
-        <v>-0.94959195783072203</v>
+        <v>-0.94959195783072214</v>
       </c>
       <c r="BZ8">
-        <v>-1.2703748525987952</v>
+        <v>-1.2703748525987955</v>
       </c>
       <c r="CA8">
-        <v>-0.48399325022573264</v>
+        <v>-0.48399325022573281</v>
       </c>
       <c r="CB8">
-        <v>-1.0829516917021049</v>
+        <v>-1.0829516917021051</v>
       </c>
       <c r="CC8">
-        <v>-0.75935310582714366</v>
+        <v>-0.75935310582714399</v>
       </c>
       <c r="CD8">
         <v>-4.1936702144116138</v>
       </c>
       <c r="CE8">
-        <v>-2.5986772726114888</v>
+        <v>-2.5986772726114884</v>
       </c>
       <c r="CF8">
         <v>-3.0137346709669286</v>
@@ -4153,61 +4153,61 @@
         <v>-2.643219259557394</v>
       </c>
       <c r="CI8">
-        <v>-3.2851591794567234</v>
+        <v>-3.285159179456723</v>
       </c>
       <c r="CJ8">
-        <v>-2.7628783592752382</v>
+        <v>-2.7628783592752377</v>
       </c>
       <c r="CK8">
-        <v>-2.9246701208307337</v>
+        <v>-2.9246701208307333</v>
       </c>
       <c r="CL8">
         <v>-3.2329301399420176</v>
       </c>
       <c r="CM8">
-        <v>-4.0291285887841504</v>
+        <v>-4.0291285801198065</v>
       </c>
       <c r="CN8">
-        <v>-2.926363621143671</v>
+        <v>-2.9263636127951442</v>
       </c>
       <c r="CO8">
-        <v>-2.7644919532412291</v>
+        <v>-2.7644919449757683</v>
       </c>
       <c r="CP8">
-        <v>-2.5323282845935933</v>
+        <v>-2.5323282764733803</v>
       </c>
       <c r="CQ8">
-        <v>-2.257708078891937</v>
+        <v>-2.2577080709932806</v>
       </c>
       <c r="CR8">
-        <v>-3.091194889213865</v>
+        <v>-3.0911948807934984</v>
       </c>
       <c r="CS8">
-        <v>-1.8829015376149834</v>
+        <v>-1.8829015301358496</v>
       </c>
       <c r="CT8">
-        <v>-3.0658150927715848</v>
+        <v>-3.0658150843615228</v>
       </c>
       <c r="CU8">
-        <v>-2.2190508638526736</v>
+        <v>-2.2190508559903814</v>
       </c>
       <c r="CV8">
-        <v>0.83393622243748533</v>
+        <v>0.83393622243748511</v>
       </c>
       <c r="CW8">
         <v>0.8829293849921801</v>
       </c>
       <c r="CX8">
-        <v>0.87043164968614095</v>
+        <v>0.87043164968614073</v>
       </c>
       <c r="CY8">
-        <v>0.84125061833532666</v>
+        <v>0.84125061833532655</v>
       </c>
       <c r="CZ8">
-        <v>0.87542851251862663</v>
+        <v>0.87542851251862652</v>
       </c>
       <c r="DA8">
-        <v>0.86551602634036584</v>
+        <v>0.86551602634036573</v>
       </c>
       <c r="DB8">
         <v>0.86032466877490776</v>
@@ -4216,13 +4216,13 @@
         <v>1.2911045207283504E-2</v>
       </c>
       <c r="DD8">
-        <v>0.99329713398788055</v>
+        <v>0.99329713214534443</v>
       </c>
       <c r="DE8">
         <v>3.2289088440929123E-3</v>
       </c>
       <c r="DF8">
-        <v>0.98815641092354023</v>
+        <v>0.98815641092350959</v>
       </c>
       <c r="DG8">
         <v>1.7046460651078118E-2</v>
@@ -4234,13 +4234,13 @@
         <v>1.4791228140891953E-2</v>
       </c>
       <c r="DJ8">
-        <v>0.96659297733249916</v>
+        <v>0.96659297733245841</v>
       </c>
       <c r="DK8">
         <v>5.3953526390651779E-4</v>
       </c>
       <c r="DL8">
-        <v>0.98777924348150126</v>
+        <v>0.98777924348148094</v>
       </c>
       <c r="DM8">
         <v>4.107224675925409E-3</v>
@@ -4252,28 +4252,28 @@
         <v>2.4433517108482301E-2</v>
       </c>
       <c r="DP8">
-        <v>0.98288325424239376</v>
+        <v>0.98288325424235623</v>
       </c>
       <c r="DQ8">
-        <v>0.83427669100557622</v>
+        <v>0.83956370702121308</v>
       </c>
       <c r="DR8">
-        <v>0.88788502770927857</v>
+        <v>0.89351177124582271</v>
       </c>
       <c r="DS8">
-        <v>0.87431935915695158</v>
+        <v>0.87986013374989613</v>
       </c>
       <c r="DT8">
-        <v>0.8648448731000038</v>
+        <v>0.87032560556870209</v>
       </c>
       <c r="DU8">
-        <v>0.88067819917534929</v>
+        <v>0.88625927128528414</v>
       </c>
       <c r="DV8">
-        <v>0.89161045379028936</v>
+        <v>0.89726080625866955</v>
       </c>
       <c r="DW8">
-        <v>0.86979497501061531</v>
+        <v>0.87530707747999914</v>
       </c>
       <c r="DX8">
         <v>1330.89226920336</v>
@@ -4300,7 +4300,7 @@
         <v>1035.5162657248416</v>
       </c>
       <c r="EF8">
-        <v>61560.489867572265</v>
+        <v>61560.489882622387</v>
       </c>
       <c r="EG8">
         <v>-4.8243208496956136</v>
@@ -4332,31 +4332,31 @@
     </row>
     <row r="9" spans="1:145" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>0.99566228331918605</v>
+        <v>0.99992422595271613</v>
       </c>
       <c r="B9">
-        <v>1.4287635470331355</v>
+        <v>1.4348793840758269</v>
       </c>
       <c r="C9">
-        <v>1.1351042158554849</v>
+        <v>1.1399630411139117</v>
       </c>
       <c r="D9">
-        <v>0.90329565831619896</v>
+        <v>0.9071622246623966</v>
       </c>
       <c r="E9">
-        <v>0.91685815147285077</v>
+        <v>0.92078277221035143</v>
       </c>
       <c r="F9">
-        <v>1.0887037614267507</v>
+        <v>1.0933639690632611</v>
       </c>
       <c r="G9">
-        <v>0.98223522604502711</v>
+        <v>0.98643969402194087</v>
       </c>
       <c r="H9">
-        <v>0.99448265418909687</v>
+        <v>0.99873954740801574</v>
       </c>
       <c r="I9">
-        <v>0.80736947465213682</v>
+        <v>0.81082542939189384</v>
       </c>
       <c r="J9">
         <v>7.1684329809344416E-2</v>
@@ -4368,7 +4368,7 @@
         <v>0.52216702275823934</v>
       </c>
       <c r="M9">
-        <v>0.33637008016292141</v>
+        <v>0.33637008016292136</v>
       </c>
       <c r="N9">
         <v>0.40003638060157221</v>
@@ -4383,7 +4383,7 @@
         <v>4.3059102312716965E-2</v>
       </c>
       <c r="R9">
-        <v>0.16231278488688958</v>
+        <v>0.16231278512304956</v>
       </c>
       <c r="S9">
         <v>-2.784438324131246</v>
@@ -4467,16 +4467,16 @@
         <v>-0.94616827196015696</v>
       </c>
       <c r="AT9">
-        <v>-0.58191318919309054</v>
+        <v>-0.58191318919309076</v>
       </c>
       <c r="AU9">
-        <v>-1.7456380912891427</v>
+        <v>-1.7456380912891429</v>
       </c>
       <c r="AV9">
-        <v>-1.779454258810043</v>
+        <v>-1.7794542588100433</v>
       </c>
       <c r="AW9">
-        <v>-1.2191153784460509</v>
+        <v>-1.2191153784460511</v>
       </c>
       <c r="AX9">
         <v>-0.83249444697154817</v>
@@ -4485,13 +4485,13 @@
         <v>-0.6682251112692974</v>
       </c>
       <c r="AZ9">
-        <v>-0.89463340258885016</v>
+        <v>-0.89463340258885038</v>
       </c>
       <c r="BA9">
-        <v>-1.7122362139999245</v>
+        <v>-1.7122362139999248</v>
       </c>
       <c r="BB9">
-        <v>-1.3335660052065077</v>
+        <v>-1.3335660052065079</v>
       </c>
       <c r="BC9">
         <v>-0.61623592049346065</v>
@@ -4548,37 +4548,37 @@
         <v>-1.8220570153373239</v>
       </c>
       <c r="BU9">
-        <v>-0.62858407224841994</v>
+        <v>-0.62858407224842017</v>
       </c>
       <c r="BV9">
-        <v>-1.2926893403990798</v>
+        <v>-1.29268934039908</v>
       </c>
       <c r="BW9">
-        <v>-1.8106408190865895</v>
+        <v>-1.8106408190865897</v>
       </c>
       <c r="BX9">
-        <v>-0.89059190131942512</v>
+        <v>-0.89059190131942545</v>
       </c>
       <c r="BY9">
-        <v>-0.94959195783072203</v>
+        <v>-0.94959195783072214</v>
       </c>
       <c r="BZ9">
-        <v>-1.2703748525987952</v>
+        <v>-1.2703748525987955</v>
       </c>
       <c r="CA9">
-        <v>-0.48399325022573264</v>
+        <v>-0.48399325022573281</v>
       </c>
       <c r="CB9">
-        <v>-1.0829516917021049</v>
+        <v>-1.0829516917021051</v>
       </c>
       <c r="CC9">
-        <v>-0.75935310582714366</v>
+        <v>-0.75935310582714399</v>
       </c>
       <c r="CD9">
         <v>-4.1936702144116138</v>
       </c>
       <c r="CE9">
-        <v>-2.5986772726114888</v>
+        <v>-2.5986772726114884</v>
       </c>
       <c r="CF9">
         <v>-3.0137346709669286</v>
@@ -4590,43 +4590,43 @@
         <v>-2.643219259557394</v>
       </c>
       <c r="CI9">
-        <v>-3.2851591794567234</v>
+        <v>-3.285159179456723</v>
       </c>
       <c r="CJ9">
-        <v>-2.7628783592752382</v>
+        <v>-2.7628783592752377</v>
       </c>
       <c r="CK9">
-        <v>-2.9246701208307337</v>
+        <v>-2.9246701208307333</v>
       </c>
       <c r="CL9">
         <v>-3.2329301399420176</v>
       </c>
       <c r="CM9">
-        <v>-4.0291285887841504</v>
+        <v>-4.0291285801198065</v>
       </c>
       <c r="CN9">
-        <v>-2.926363621143671</v>
+        <v>-2.9263636127951442</v>
       </c>
       <c r="CO9">
-        <v>-2.7644919532412291</v>
+        <v>-2.7644919449757683</v>
       </c>
       <c r="CP9">
-        <v>-2.5323282845935933</v>
+        <v>-2.5323282764733803</v>
       </c>
       <c r="CQ9">
-        <v>-2.257708078891937</v>
+        <v>-2.2577080709932806</v>
       </c>
       <c r="CR9">
-        <v>-3.091194889213865</v>
+        <v>-3.0911948807934984</v>
       </c>
       <c r="CS9">
-        <v>-1.8829015376149834</v>
+        <v>-1.8829015301358496</v>
       </c>
       <c r="CT9">
-        <v>-3.0658150927715848</v>
+        <v>-3.0658150843615228</v>
       </c>
       <c r="CU9">
-        <v>-2.2190508638526736</v>
+        <v>-2.2190508559903814</v>
       </c>
       <c r="CV9">
         <v>0.84317550053289181</v>
@@ -4641,10 +4641,10 @@
         <v>0.85550783902308414</v>
       </c>
       <c r="CZ9">
-        <v>0.87538437722388218</v>
+        <v>0.87538437722388229</v>
       </c>
       <c r="DA9">
-        <v>0.86295637597103714</v>
+        <v>0.86295637597103725</v>
       </c>
       <c r="DB9">
         <v>0.86647383700378144</v>
@@ -4653,13 +4653,13 @@
         <v>1.0363871353512083E-2</v>
       </c>
       <c r="DD9">
-        <v>0.98109992920973632</v>
+        <v>0.98109992795834466</v>
       </c>
       <c r="DE9">
         <v>2.4402653311127883E-3</v>
       </c>
       <c r="DF9">
-        <v>0.97325880853795421</v>
+        <v>0.973258808537937</v>
       </c>
       <c r="DG9">
         <v>1.3133382823655511E-2</v>
@@ -4671,46 +4671,46 @@
         <v>1.3278431237235445E-2</v>
       </c>
       <c r="DJ9">
-        <v>0.95679631773918206</v>
+        <v>0.95679631773915597</v>
       </c>
       <c r="DK9">
         <v>3.4445438179400446E-4</v>
       </c>
       <c r="DL9">
-        <v>0.97305157783214402</v>
+        <v>0.97305157783189</v>
       </c>
       <c r="DM9">
         <v>3.462886548937344E-3</v>
       </c>
       <c r="DN9">
-        <v>0.94800199948614683</v>
+        <v>0.94800199948614161</v>
       </c>
       <c r="DO9">
         <v>2.0291999788912454E-2</v>
       </c>
       <c r="DP9">
-        <v>0.9676606258056224</v>
+        <v>0.96766062580048717</v>
       </c>
       <c r="DQ9">
-        <v>0.85575550217015062</v>
+        <v>0.85941857348570838</v>
       </c>
       <c r="DR9">
-        <v>0.90469735501567927</v>
+        <v>0.90856992133901671</v>
       </c>
       <c r="DS9">
-        <v>0.89330437577506083</v>
+        <v>0.89712817433368741</v>
       </c>
       <c r="DT9">
-        <v>0.89032683507905785</v>
+        <v>0.89413788824416718</v>
       </c>
       <c r="DU9">
-        <v>0.89579347730538494</v>
+        <v>0.89962793048892087</v>
       </c>
       <c r="DV9">
-        <v>0.90640971976737783</v>
+        <v>0.91028961588561752</v>
       </c>
       <c r="DW9">
-        <v>0.89161496537530716</v>
+        <v>0.89543153240011186</v>
       </c>
       <c r="DX9">
         <v>1417.8210809690634</v>
@@ -4737,7 +4737,7 @@
         <v>1460.3607104912489</v>
       </c>
       <c r="EF9">
-        <v>58346.564868302587</v>
+        <v>58346.564880493868</v>
       </c>
       <c r="EG9">
         <v>-4.8243208496956136</v>
@@ -4769,31 +4769,31 @@
     </row>
     <row r="10" spans="1:145" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>0.98013861601769769</v>
+        <v>0.98041689526022802</v>
       </c>
       <c r="B10">
-        <v>1.1243239560063847</v>
+        <v>1.1246431720986017</v>
       </c>
       <c r="C10">
-        <v>1.3002725292995889</v>
+        <v>1.300641700403169</v>
       </c>
       <c r="D10">
-        <v>0.93278447986400659</v>
+        <v>0.93304931440297723</v>
       </c>
       <c r="E10">
-        <v>0.92404302044268305</v>
+        <v>0.92430537312177552</v>
       </c>
       <c r="F10">
-        <v>1.1952148193851415</v>
+        <v>1.1955541626873682</v>
       </c>
       <c r="G10">
-        <v>0.98711650966303432</v>
+        <v>0.98739677005693072</v>
       </c>
       <c r="H10">
-        <v>0.97205861103261693</v>
+        <v>0.97233459621425622</v>
       </c>
       <c r="I10">
-        <v>0.8335062692928833</v>
+        <v>0.83374291769372311</v>
       </c>
       <c r="J10">
         <v>7.3379295905803832E-2</v>
@@ -4805,7 +4805,7 @@
         <v>0.63909477032632456</v>
       </c>
       <c r="M10">
-        <v>0.3563406357057704</v>
+        <v>0.35634063570577035</v>
       </c>
       <c r="N10">
         <v>0.38360374056879804</v>
@@ -4820,7 +4820,7 @@
         <v>4.4375949024938299E-2</v>
       </c>
       <c r="R10">
-        <v>0.16628223993086302</v>
+        <v>0.16628224005687972</v>
       </c>
       <c r="S10">
         <v>-2.784438324131246</v>
@@ -4904,16 +4904,16 @@
         <v>-0.94616827196015696</v>
       </c>
       <c r="AT10">
-        <v>-0.58191318919309054</v>
+        <v>-0.58191318919309076</v>
       </c>
       <c r="AU10">
-        <v>-1.7456380912891427</v>
+        <v>-1.7456380912891429</v>
       </c>
       <c r="AV10">
-        <v>-1.779454258810043</v>
+        <v>-1.7794542588100433</v>
       </c>
       <c r="AW10">
-        <v>-1.2191153784460509</v>
+        <v>-1.2191153784460511</v>
       </c>
       <c r="AX10">
         <v>-0.83249444697154817</v>
@@ -4922,13 +4922,13 @@
         <v>-0.6682251112692974</v>
       </c>
       <c r="AZ10">
-        <v>-0.89463340258885016</v>
+        <v>-0.89463340258885038</v>
       </c>
       <c r="BA10">
-        <v>-1.7122362139999245</v>
+        <v>-1.7122362139999248</v>
       </c>
       <c r="BB10">
-        <v>-1.3335660052065077</v>
+        <v>-1.3335660052065079</v>
       </c>
       <c r="BC10">
         <v>-0.61623592049346065</v>
@@ -4985,37 +4985,37 @@
         <v>-1.8220570153373239</v>
       </c>
       <c r="BU10">
-        <v>-0.62858407224841994</v>
+        <v>-0.62858407224842017</v>
       </c>
       <c r="BV10">
-        <v>-1.2926893403990798</v>
+        <v>-1.29268934039908</v>
       </c>
       <c r="BW10">
-        <v>-1.8106408190865895</v>
+        <v>-1.8106408190865897</v>
       </c>
       <c r="BX10">
-        <v>-0.89059190131942512</v>
+        <v>-0.89059190131942545</v>
       </c>
       <c r="BY10">
-        <v>-0.94959195783072203</v>
+        <v>-0.94959195783072214</v>
       </c>
       <c r="BZ10">
-        <v>-1.2703748525987952</v>
+        <v>-1.2703748525987955</v>
       </c>
       <c r="CA10">
-        <v>-0.48399325022573264</v>
+        <v>-0.48399325022573281</v>
       </c>
       <c r="CB10">
-        <v>-1.0829516917021049</v>
+        <v>-1.0829516917021051</v>
       </c>
       <c r="CC10">
-        <v>-0.75935310582714366</v>
+        <v>-0.75935310582714399</v>
       </c>
       <c r="CD10">
         <v>-4.1936702144116138</v>
       </c>
       <c r="CE10">
-        <v>-2.5986772726114888</v>
+        <v>-2.5986772726114884</v>
       </c>
       <c r="CF10">
         <v>-3.0137346709669286</v>
@@ -5027,43 +5027,43 @@
         <v>-2.643219259557394</v>
       </c>
       <c r="CI10">
-        <v>-3.2851591794567234</v>
+        <v>-3.285159179456723</v>
       </c>
       <c r="CJ10">
-        <v>-2.7628783592752382</v>
+        <v>-2.7628783592752377</v>
       </c>
       <c r="CK10">
-        <v>-2.9246701208307337</v>
+        <v>-2.9246701208307333</v>
       </c>
       <c r="CL10">
         <v>-3.2329301399420176</v>
       </c>
       <c r="CM10">
-        <v>-4.0291285887841504</v>
+        <v>-4.0291285801198065</v>
       </c>
       <c r="CN10">
-        <v>-2.926363621143671</v>
+        <v>-2.9263636127951442</v>
       </c>
       <c r="CO10">
-        <v>-2.7644919532412291</v>
+        <v>-2.7644919449757683</v>
       </c>
       <c r="CP10">
-        <v>-2.5323282845935933</v>
+        <v>-2.5323282764733803</v>
       </c>
       <c r="CQ10">
-        <v>-2.257708078891937</v>
+        <v>-2.2577080709932806</v>
       </c>
       <c r="CR10">
-        <v>-3.091194889213865</v>
+        <v>-3.0911948807934984</v>
       </c>
       <c r="CS10">
-        <v>-1.8829015376149834</v>
+        <v>-1.8829015301358496</v>
       </c>
       <c r="CT10">
-        <v>-3.0658150927715848</v>
+        <v>-3.0658150843615228</v>
       </c>
       <c r="CU10">
-        <v>-2.2190508638526736</v>
+        <v>-2.2190508559903814</v>
       </c>
       <c r="CV10">
         <v>0.85278581625244587</v>
@@ -5090,13 +5090,13 @@
         <v>1.1298579167659539E-2</v>
       </c>
       <c r="DD10">
-        <v>0.96243921510670216</v>
+        <v>0.96243921449628655</v>
       </c>
       <c r="DE10">
         <v>2.8762415491147462E-3</v>
       </c>
       <c r="DF10">
-        <v>0.94941860582072324</v>
+        <v>0.94941860582067594</v>
       </c>
       <c r="DG10">
         <v>1.4065065032778363E-2</v>
@@ -5108,46 +5108,46 @@
         <v>1.6808215338955042E-2</v>
       </c>
       <c r="DJ10">
-        <v>0.9264652268177761</v>
+        <v>0.92646522681774945</v>
       </c>
       <c r="DK10">
         <v>4.0149729015488374E-4</v>
       </c>
       <c r="DL10">
-        <v>0.94954850937862467</v>
+        <v>0.94954850937861113</v>
       </c>
       <c r="DM10">
         <v>3.4386076743402904E-3</v>
       </c>
       <c r="DN10">
-        <v>0.93072429768533149</v>
+        <v>0.93072429768532983</v>
       </c>
       <c r="DO10">
         <v>2.2574577476424964E-2</v>
       </c>
       <c r="DP10">
-        <v>0.94456720388959958</v>
+        <v>0.94456720388958049</v>
       </c>
       <c r="DQ10">
-        <v>0.88581569634283552</v>
+        <v>0.88606719614887042</v>
       </c>
       <c r="DR10">
-        <v>0.91989892239646642</v>
+        <v>0.92016009849053149</v>
       </c>
       <c r="DS10">
-        <v>0.91263925439353855</v>
+        <v>0.91289836933530866</v>
       </c>
       <c r="DT10">
-        <v>0.92696394102669</v>
+        <v>0.92722712300847554</v>
       </c>
       <c r="DU10">
-        <v>0.91512807625464931</v>
+        <v>0.9153878978183847</v>
       </c>
       <c r="DV10">
-        <v>0.92650087716441898</v>
+        <v>0.92676392767389704</v>
       </c>
       <c r="DW10">
-        <v>0.91461246515724937</v>
+        <v>0.91487214032958875</v>
       </c>
       <c r="DX10">
         <v>1465.1730304225584</v>
@@ -5174,7 +5174,7 @@
         <v>1134.4890341160899</v>
       </c>
       <c r="EF10">
-        <v>58795.546985220601</v>
+        <v>58795.546991432799</v>
       </c>
       <c r="EG10">
         <v>-4.8243208496956136</v>
@@ -5206,31 +5206,31 @@
     </row>
     <row r="11" spans="1:145" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>1.040561316842894</v>
+        <v>1.0411809016983149</v>
       </c>
       <c r="B11">
-        <v>1.3461760579782911</v>
+        <v>1.3469776160265801</v>
       </c>
       <c r="C11">
-        <v>1.2481044758390798</v>
+        <v>1.2488476388018921</v>
       </c>
       <c r="D11">
-        <v>0.84905196867274835</v>
+        <v>0.84955752248561833</v>
       </c>
       <c r="E11">
-        <v>0.94265889119573942</v>
+        <v>0.94322018168709154</v>
       </c>
       <c r="F11">
-        <v>1.0754450813077201</v>
+        <v>1.0760854371180215</v>
       </c>
       <c r="G11">
-        <v>0.97969372381664199</v>
+        <v>0.98027706608047838</v>
       </c>
       <c r="H11">
-        <v>0.93187406010706986</v>
+        <v>0.93242892895089124</v>
       </c>
       <c r="I11">
-        <v>0.86470153010303852</v>
+        <v>0.86521640218586482</v>
       </c>
       <c r="J11">
         <v>5.9408994031219062E-2</v>
@@ -5257,7 +5257,7 @@
         <v>4.1659053078919726E-2</v>
       </c>
       <c r="R11">
-        <v>0.17832457318035497</v>
+        <v>0.17832457318035502</v>
       </c>
       <c r="S11">
         <v>-2.784438324131246</v>
@@ -5341,16 +5341,16 @@
         <v>-0.94616827196015696</v>
       </c>
       <c r="AT11">
-        <v>-0.58191318919309054</v>
+        <v>-0.58191318919309076</v>
       </c>
       <c r="AU11">
-        <v>-1.7456380912891427</v>
+        <v>-1.7456380912891429</v>
       </c>
       <c r="AV11">
-        <v>-1.779454258810043</v>
+        <v>-1.7794542588100433</v>
       </c>
       <c r="AW11">
-        <v>-1.2191153784460509</v>
+        <v>-1.2191153784460511</v>
       </c>
       <c r="AX11">
         <v>-0.83249444697154817</v>
@@ -5359,13 +5359,13 @@
         <v>-0.6682251112692974</v>
       </c>
       <c r="AZ11">
-        <v>-0.89463340258885016</v>
+        <v>-0.89463340258885038</v>
       </c>
       <c r="BA11">
-        <v>-1.7122362139999245</v>
+        <v>-1.7122362139999248</v>
       </c>
       <c r="BB11">
-        <v>-1.3335660052065077</v>
+        <v>-1.3335660052065079</v>
       </c>
       <c r="BC11">
         <v>-0.61623592049346065</v>
@@ -5422,37 +5422,37 @@
         <v>-1.8220570153373239</v>
       </c>
       <c r="BU11">
-        <v>-0.62858407224841994</v>
+        <v>-0.62858407224842017</v>
       </c>
       <c r="BV11">
-        <v>-1.2926893403990798</v>
+        <v>-1.29268934039908</v>
       </c>
       <c r="BW11">
-        <v>-1.8106408190865895</v>
+        <v>-1.8106408190865897</v>
       </c>
       <c r="BX11">
-        <v>-0.89059190131942512</v>
+        <v>-0.89059190131942545</v>
       </c>
       <c r="BY11">
-        <v>-0.94959195783072203</v>
+        <v>-0.94959195783072214</v>
       </c>
       <c r="BZ11">
-        <v>-1.2703748525987952</v>
+        <v>-1.2703748525987955</v>
       </c>
       <c r="CA11">
-        <v>-0.48399325022573264</v>
+        <v>-0.48399325022573281</v>
       </c>
       <c r="CB11">
-        <v>-1.0829516917021049</v>
+        <v>-1.0829516917021051</v>
       </c>
       <c r="CC11">
-        <v>-0.75935310582714366</v>
+        <v>-0.75935310582714399</v>
       </c>
       <c r="CD11">
         <v>-4.1936702144116138</v>
       </c>
       <c r="CE11">
-        <v>-2.5986772726114888</v>
+        <v>-2.5986772726114884</v>
       </c>
       <c r="CF11">
         <v>-3.0137346709669286</v>
@@ -5464,43 +5464,43 @@
         <v>-2.643219259557394</v>
       </c>
       <c r="CI11">
-        <v>-3.2851591794567234</v>
+        <v>-3.285159179456723</v>
       </c>
       <c r="CJ11">
-        <v>-2.7628783592752382</v>
+        <v>-2.7628783592752377</v>
       </c>
       <c r="CK11">
-        <v>-2.9246701208307337</v>
+        <v>-2.9246701208307333</v>
       </c>
       <c r="CL11">
         <v>-3.2329301399420176</v>
       </c>
       <c r="CM11">
-        <v>-4.0291285887841504</v>
+        <v>-4.0291285801198065</v>
       </c>
       <c r="CN11">
-        <v>-2.926363621143671</v>
+        <v>-2.9263636127951442</v>
       </c>
       <c r="CO11">
-        <v>-2.7644919532412291</v>
+        <v>-2.7644919449757683</v>
       </c>
       <c r="CP11">
-        <v>-2.5323282845935933</v>
+        <v>-2.5323282764733803</v>
       </c>
       <c r="CQ11">
-        <v>-2.257708078891937</v>
+        <v>-2.2577080709932806</v>
       </c>
       <c r="CR11">
-        <v>-3.091194889213865</v>
+        <v>-3.0911948807934984</v>
       </c>
       <c r="CS11">
-        <v>-1.8829015376149834</v>
+        <v>-1.8829015301358496</v>
       </c>
       <c r="CT11">
-        <v>-3.0658150927715848</v>
+        <v>-3.0658150843615228</v>
       </c>
       <c r="CU11">
-        <v>-2.2190508638526736</v>
+        <v>-2.2190508559903814</v>
       </c>
       <c r="CV11">
         <v>0.86736259952135264</v>
@@ -5527,7 +5527,7 @@
         <v>1.1842488444725163E-2</v>
       </c>
       <c r="DD11">
-        <v>0.95494073655615308</v>
+        <v>0.95494073655615286</v>
       </c>
       <c r="DE11">
         <v>3.0633497691719071E-3</v>
@@ -5566,25 +5566,25 @@
         <v>0.93267696586357651</v>
       </c>
       <c r="DQ11">
-        <v>0.90774894933038641</v>
+        <v>0.90828945327996236</v>
       </c>
       <c r="DR11">
-        <v>0.94181902002413331</v>
+        <v>0.94237981042822483</v>
       </c>
       <c r="DS11">
-        <v>0.93892594569858179</v>
+        <v>0.93948501346988966</v>
       </c>
       <c r="DT11">
-        <v>0.96243217269336989</v>
+        <v>0.9630052368549129</v>
       </c>
       <c r="DU11">
-        <v>0.94334192238643189</v>
+        <v>0.94390361957729763</v>
       </c>
       <c r="DV11">
-        <v>0.96941762976853352</v>
+        <v>0.96999485330381252</v>
       </c>
       <c r="DW11">
-        <v>0.94024885306347639</v>
+        <v>0.9408087085378779</v>
       </c>
       <c r="DX11">
         <v>1330.1577578776783</v>
@@ -5643,31 +5643,31 @@
     </row>
     <row r="12" spans="1:145" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>0.95708834919818842</v>
+        <v>0.96087875015073931</v>
       </c>
       <c r="B12">
-        <v>1.2403035609292159</v>
+        <v>1.2452155920940888</v>
       </c>
       <c r="C12">
-        <v>1.0160811186415297</v>
+        <v>1.0201051513687009</v>
       </c>
       <c r="D12">
-        <v>0.92164688381505955</v>
+        <v>0.92529692430427335</v>
       </c>
       <c r="E12">
-        <v>0.95194531905672997</v>
+        <v>0.95571535183077005</v>
       </c>
       <c r="F12">
-        <v>0.95376880185943003</v>
+        <v>0.95754605625617406</v>
       </c>
       <c r="G12">
-        <v>0.96359560076814144</v>
+        <v>0.96741177268799117</v>
       </c>
       <c r="H12">
-        <v>0.95385324295005824</v>
+        <v>0.95763083176273223</v>
       </c>
       <c r="I12">
-        <v>0.88080083399722853</v>
+        <v>0.8842891099991127</v>
       </c>
       <c r="J12">
         <v>5.6648379680563993E-2</v>
@@ -5694,7 +5694,7 @@
         <v>5.379364250622664E-2</v>
       </c>
       <c r="R12">
-        <v>0.19477176447538558</v>
+        <v>0.19477176447538561</v>
       </c>
       <c r="S12">
         <v>-2.784438324131246</v>
@@ -5778,16 +5778,16 @@
         <v>-0.94616827196015696</v>
       </c>
       <c r="AT12">
-        <v>-0.58191318919309054</v>
+        <v>-0.58191318919309076</v>
       </c>
       <c r="AU12">
-        <v>-1.7456380912891427</v>
+        <v>-1.7456380912891429</v>
       </c>
       <c r="AV12">
-        <v>-1.779454258810043</v>
+        <v>-1.7794542588100433</v>
       </c>
       <c r="AW12">
-        <v>-1.2191153784460509</v>
+        <v>-1.2191153784460511</v>
       </c>
       <c r="AX12">
         <v>-0.83249444697154817</v>
@@ -5796,13 +5796,13 @@
         <v>-0.6682251112692974</v>
       </c>
       <c r="AZ12">
-        <v>-0.89463340258885016</v>
+        <v>-0.89463340258885038</v>
       </c>
       <c r="BA12">
-        <v>-1.7122362139999245</v>
+        <v>-1.7122362139999248</v>
       </c>
       <c r="BB12">
-        <v>-1.3335660052065077</v>
+        <v>-1.3335660052065079</v>
       </c>
       <c r="BC12">
         <v>-0.61623592049346065</v>
@@ -5859,37 +5859,37 @@
         <v>-1.8220570153373239</v>
       </c>
       <c r="BU12">
-        <v>-0.62858407224841994</v>
+        <v>-0.62858407224842017</v>
       </c>
       <c r="BV12">
-        <v>-1.2926893403990798</v>
+        <v>-1.29268934039908</v>
       </c>
       <c r="BW12">
-        <v>-1.8106408190865895</v>
+        <v>-1.8106408190865897</v>
       </c>
       <c r="BX12">
-        <v>-0.89059190131942512</v>
+        <v>-0.89059190131942545</v>
       </c>
       <c r="BY12">
-        <v>-0.94959195783072203</v>
+        <v>-0.94959195783072214</v>
       </c>
       <c r="BZ12">
-        <v>-1.2703748525987952</v>
+        <v>-1.2703748525987955</v>
       </c>
       <c r="CA12">
-        <v>-0.48399325022573264</v>
+        <v>-0.48399325022573281</v>
       </c>
       <c r="CB12">
-        <v>-1.0829516917021049</v>
+        <v>-1.0829516917021051</v>
       </c>
       <c r="CC12">
-        <v>-0.75935310582714366</v>
+        <v>-0.75935310582714399</v>
       </c>
       <c r="CD12">
         <v>-4.1936702144116138</v>
       </c>
       <c r="CE12">
-        <v>-2.5986772726114888</v>
+        <v>-2.5986772726114884</v>
       </c>
       <c r="CF12">
         <v>-3.0137346709669286</v>
@@ -5901,43 +5901,43 @@
         <v>-2.643219259557394</v>
       </c>
       <c r="CI12">
-        <v>-3.2851591794567234</v>
+        <v>-3.285159179456723</v>
       </c>
       <c r="CJ12">
-        <v>-2.7628783592752382</v>
+        <v>-2.7628783592752377</v>
       </c>
       <c r="CK12">
-        <v>-2.9246701208307337</v>
+        <v>-2.9246701208307333</v>
       </c>
       <c r="CL12">
         <v>-3.2329301399420176</v>
       </c>
       <c r="CM12">
-        <v>-4.0291285887841504</v>
+        <v>-4.0291285801198065</v>
       </c>
       <c r="CN12">
-        <v>-2.926363621143671</v>
+        <v>-2.9263636127951442</v>
       </c>
       <c r="CO12">
-        <v>-2.7644919532412291</v>
+        <v>-2.7644919449757683</v>
       </c>
       <c r="CP12">
-        <v>-2.5323282845935933</v>
+        <v>-2.5323282764733803</v>
       </c>
       <c r="CQ12">
-        <v>-2.257708078891937</v>
+        <v>-2.2577080709932806</v>
       </c>
       <c r="CR12">
-        <v>-3.091194889213865</v>
+        <v>-3.0911948807934984</v>
       </c>
       <c r="CS12">
-        <v>-1.8829015376149834</v>
+        <v>-1.8829015301358496</v>
       </c>
       <c r="CT12">
-        <v>-3.0658150927715848</v>
+        <v>-3.0658150843615228</v>
       </c>
       <c r="CU12">
-        <v>-2.2190508638526736</v>
+        <v>-2.2190508559903814</v>
       </c>
       <c r="CV12">
         <v>0.89127017963130895</v>
@@ -6003,25 +6003,25 @@
         <v>0.93152203299464587</v>
       </c>
       <c r="DQ12">
-        <v>0.90782453706060817</v>
+        <v>0.91141983627505008</v>
       </c>
       <c r="DR12">
-        <v>0.95428043648169658</v>
+        <v>0.95805971712853677</v>
       </c>
       <c r="DS12">
-        <v>0.95338750203066924</v>
+        <v>0.95716324634818672</v>
       </c>
       <c r="DT12">
-        <v>0.96186085378023878</v>
+        <v>0.96567015550190793</v>
       </c>
       <c r="DU12">
-        <v>0.95416724307773471</v>
+        <v>0.9579460754395378</v>
       </c>
       <c r="DV12">
-        <v>0.97275082805907243</v>
+        <v>0.97660325784610169</v>
       </c>
       <c r="DW12">
-        <v>0.95511371444364812</v>
+        <v>0.95889629515947716</v>
       </c>
       <c r="DX12">
         <v>1373.6752883620857</v>
@@ -6080,31 +6080,31 @@
     </row>
     <row r="13" spans="1:145" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>0.99830184944258094</v>
+        <v>1.0047599975148589</v>
       </c>
       <c r="B13">
-        <v>1.0672331605042469</v>
+        <v>1.07413723443943</v>
       </c>
       <c r="C13">
-        <v>0.97126431117667134</v>
+        <v>0.97754754980074121</v>
       </c>
       <c r="D13">
-        <v>0.96346749659400588</v>
+        <v>0.96970029658261192</v>
       </c>
       <c r="E13">
-        <v>0.95914652577528947</v>
+        <v>0.96535137282623551</v>
       </c>
       <c r="F13">
-        <v>0.92924998660836611</v>
+        <v>0.93526142895221231</v>
       </c>
       <c r="G13">
-        <v>0.95353957178971605</v>
+        <v>0.9597081467060431</v>
       </c>
       <c r="H13">
-        <v>0.98171247836158115</v>
+        <v>0.98806330757541272</v>
       </c>
       <c r="I13">
-        <v>0.89621706542430257</v>
+        <v>0.90201481338664935</v>
       </c>
       <c r="J13">
         <v>6.5619586865297744E-2</v>
@@ -6215,16 +6215,16 @@
         <v>-0.94616827196015696</v>
       </c>
       <c r="AT13">
-        <v>-0.58191318919309054</v>
+        <v>-0.58191318919309076</v>
       </c>
       <c r="AU13">
-        <v>-1.7456380912891427</v>
+        <v>-1.7456380912891429</v>
       </c>
       <c r="AV13">
-        <v>-1.779454258810043</v>
+        <v>-1.7794542588100433</v>
       </c>
       <c r="AW13">
-        <v>-1.2191153784460509</v>
+        <v>-1.2191153784460511</v>
       </c>
       <c r="AX13">
         <v>-0.83249444697154817</v>
@@ -6233,13 +6233,13 @@
         <v>-0.6682251112692974</v>
       </c>
       <c r="AZ13">
-        <v>-0.89463340258885016</v>
+        <v>-0.89463340258885038</v>
       </c>
       <c r="BA13">
-        <v>-1.7122362139999245</v>
+        <v>-1.7122362139999248</v>
       </c>
       <c r="BB13">
-        <v>-1.3335660052065077</v>
+        <v>-1.3335660052065079</v>
       </c>
       <c r="BC13">
         <v>-0.61623592049346065</v>
@@ -6296,37 +6296,37 @@
         <v>-1.8220570153373239</v>
       </c>
       <c r="BU13">
-        <v>-0.62858407224841994</v>
+        <v>-0.62858407224842017</v>
       </c>
       <c r="BV13">
-        <v>-1.2926893403990798</v>
+        <v>-1.29268934039908</v>
       </c>
       <c r="BW13">
-        <v>-1.8106408190865895</v>
+        <v>-1.8106408190865897</v>
       </c>
       <c r="BX13">
-        <v>-0.89059190131942512</v>
+        <v>-0.89059190131942545</v>
       </c>
       <c r="BY13">
-        <v>-0.94959195783072203</v>
+        <v>-0.94959195783072214</v>
       </c>
       <c r="BZ13">
-        <v>-1.2703748525987952</v>
+        <v>-1.2703748525987955</v>
       </c>
       <c r="CA13">
-        <v>-0.48399325022573264</v>
+        <v>-0.48399325022573281</v>
       </c>
       <c r="CB13">
-        <v>-1.0829516917021049</v>
+        <v>-1.0829516917021051</v>
       </c>
       <c r="CC13">
-        <v>-0.75935310582714366</v>
+        <v>-0.75935310582714399</v>
       </c>
       <c r="CD13">
         <v>-4.1936702144116138</v>
       </c>
       <c r="CE13">
-        <v>-2.5986772726114888</v>
+        <v>-2.5986772726114884</v>
       </c>
       <c r="CF13">
         <v>-3.0137346709669286</v>
@@ -6338,43 +6338,43 @@
         <v>-2.643219259557394</v>
       </c>
       <c r="CI13">
-        <v>-3.2851591794567234</v>
+        <v>-3.285159179456723</v>
       </c>
       <c r="CJ13">
-        <v>-2.7628783592752382</v>
+        <v>-2.7628783592752377</v>
       </c>
       <c r="CK13">
-        <v>-2.9246701208307337</v>
+        <v>-2.9246701208307333</v>
       </c>
       <c r="CL13">
         <v>-3.2329301399420176</v>
       </c>
       <c r="CM13">
-        <v>-4.0291285887841504</v>
+        <v>-4.0291285801198065</v>
       </c>
       <c r="CN13">
-        <v>-2.926363621143671</v>
+        <v>-2.9263636127951442</v>
       </c>
       <c r="CO13">
-        <v>-2.7644919532412291</v>
+        <v>-2.7644919449757683</v>
       </c>
       <c r="CP13">
-        <v>-2.5323282845935933</v>
+        <v>-2.5323282764733803</v>
       </c>
       <c r="CQ13">
-        <v>-2.257708078891937</v>
+        <v>-2.2577080709932806</v>
       </c>
       <c r="CR13">
-        <v>-3.091194889213865</v>
+        <v>-3.0911948807934984</v>
       </c>
       <c r="CS13">
-        <v>-1.8829015376149834</v>
+        <v>-1.8829015301358496</v>
       </c>
       <c r="CT13">
-        <v>-3.0658150927715848</v>
+        <v>-3.0658150843615228</v>
       </c>
       <c r="CU13">
-        <v>-2.2190508638526736</v>
+        <v>-2.2190508559903814</v>
       </c>
       <c r="CV13">
         <v>0.91177137305057265</v>
@@ -6440,25 +6440,25 @@
         <v>0.93879681383643698</v>
       </c>
       <c r="DQ13">
-        <v>0.91356233126854758</v>
+        <v>0.91947228807357795</v>
       </c>
       <c r="DR13">
-        <v>0.96394557296290762</v>
+        <v>0.97018146569143182</v>
       </c>
       <c r="DS13">
-        <v>0.96440825105944383</v>
+        <v>0.97064713691440463</v>
       </c>
       <c r="DT13">
-        <v>0.96716237236171765</v>
+        <v>0.97341907499543023</v>
       </c>
       <c r="DU13">
-        <v>0.96645633080553173</v>
+        <v>0.97270846596206539</v>
       </c>
       <c r="DV13">
-        <v>1.004017649293955</v>
+        <v>1.0105127736393034</v>
       </c>
       <c r="DW13">
-        <v>0.965595252984085</v>
+        <v>0.9718418177131215</v>
       </c>
       <c r="DX13">
         <v>1722.9028203819771</v>
@@ -6517,31 +6517,31 @@
     </row>
     <row r="14" spans="1:145" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>0.95471762699199803</v>
+        <v>0.96213969155489754</v>
       </c>
       <c r="B14">
-        <v>1.116227339319346</v>
+        <v>1.124904995565627</v>
       </c>
       <c r="C14">
-        <v>1.0833970608475099</v>
+        <v>1.0918194914233448</v>
       </c>
       <c r="D14">
-        <v>1.0036947204679822</v>
+        <v>1.0114975375587545</v>
       </c>
       <c r="E14">
-        <v>0.95848755992995882</v>
+        <v>0.96593893230584116</v>
       </c>
       <c r="F14">
-        <v>1.0116069355205133</v>
+        <v>1.0194712629147462</v>
       </c>
       <c r="G14">
-        <v>0.94011122424115057</v>
+        <v>0.94741973725625894</v>
       </c>
       <c r="H14">
-        <v>1.0206983362015483</v>
+        <v>1.0286333409991455</v>
       </c>
       <c r="I14">
-        <v>0.9129666072572552</v>
+        <v>0.92006409546870072</v>
       </c>
       <c r="J14">
         <v>7.0636692770058407E-2</v>
@@ -6568,7 +6568,7 @@
         <v>5.8701143494763471E-2</v>
       </c>
       <c r="R14">
-        <v>0.23111284134409196</v>
+        <v>0.23111284134409199</v>
       </c>
       <c r="S14">
         <v>-2.784438324131246</v>
@@ -6652,16 +6652,16 @@
         <v>-0.94616827196015696</v>
       </c>
       <c r="AT14">
-        <v>-0.58191318919309054</v>
+        <v>-0.58191318919309076</v>
       </c>
       <c r="AU14">
-        <v>-1.7456380912891427</v>
+        <v>-1.7456380912891429</v>
       </c>
       <c r="AV14">
-        <v>-1.779454258810043</v>
+        <v>-1.7794542588100433</v>
       </c>
       <c r="AW14">
-        <v>-1.2191153784460509</v>
+        <v>-1.2191153784460511</v>
       </c>
       <c r="AX14">
         <v>-0.83249444697154817</v>
@@ -6670,13 +6670,13 @@
         <v>-0.6682251112692974</v>
       </c>
       <c r="AZ14">
-        <v>-0.89463340258885016</v>
+        <v>-0.89463340258885038</v>
       </c>
       <c r="BA14">
-        <v>-1.7122362139999245</v>
+        <v>-1.7122362139999248</v>
       </c>
       <c r="BB14">
-        <v>-1.3335660052065077</v>
+        <v>-1.3335660052065079</v>
       </c>
       <c r="BC14">
         <v>-0.61623592049346065</v>
@@ -6733,37 +6733,37 @@
         <v>-1.8220570153373239</v>
       </c>
       <c r="BU14">
-        <v>-0.62858407224841994</v>
+        <v>-0.62858407224842017</v>
       </c>
       <c r="BV14">
-        <v>-1.2926893403990798</v>
+        <v>-1.29268934039908</v>
       </c>
       <c r="BW14">
-        <v>-1.8106408190865895</v>
+        <v>-1.8106408190865897</v>
       </c>
       <c r="BX14">
-        <v>-0.89059190131942512</v>
+        <v>-0.89059190131942545</v>
       </c>
       <c r="BY14">
-        <v>-0.94959195783072203</v>
+        <v>-0.94959195783072214</v>
       </c>
       <c r="BZ14">
-        <v>-1.2703748525987952</v>
+        <v>-1.2703748525987955</v>
       </c>
       <c r="CA14">
-        <v>-0.48399325022573264</v>
+        <v>-0.48399325022573281</v>
       </c>
       <c r="CB14">
-        <v>-1.0829516917021049</v>
+        <v>-1.0829516917021051</v>
       </c>
       <c r="CC14">
-        <v>-0.75935310582714366</v>
+        <v>-0.75935310582714399</v>
       </c>
       <c r="CD14">
         <v>-4.1936702144116138</v>
       </c>
       <c r="CE14">
-        <v>-2.5986772726114888</v>
+        <v>-2.5986772726114884</v>
       </c>
       <c r="CF14">
         <v>-3.0137346709669286</v>
@@ -6775,43 +6775,43 @@
         <v>-2.643219259557394</v>
       </c>
       <c r="CI14">
-        <v>-3.2851591794567234</v>
+        <v>-3.285159179456723</v>
       </c>
       <c r="CJ14">
-        <v>-2.7628783592752382</v>
+        <v>-2.7628783592752377</v>
       </c>
       <c r="CK14">
-        <v>-2.9246701208307337</v>
+        <v>-2.9246701208307333</v>
       </c>
       <c r="CL14">
         <v>-3.2329301399420176</v>
       </c>
       <c r="CM14">
-        <v>-4.0291285887841504</v>
+        <v>-4.0291285801198065</v>
       </c>
       <c r="CN14">
-        <v>-2.926363621143671</v>
+        <v>-2.9263636127951442</v>
       </c>
       <c r="CO14">
-        <v>-2.7644919532412291</v>
+        <v>-2.7644919449757683</v>
       </c>
       <c r="CP14">
-        <v>-2.5323282845935933</v>
+        <v>-2.5323282764733803</v>
       </c>
       <c r="CQ14">
-        <v>-2.257708078891937</v>
+        <v>-2.2577080709932806</v>
       </c>
       <c r="CR14">
-        <v>-3.091194889213865</v>
+        <v>-3.0911948807934984</v>
       </c>
       <c r="CS14">
-        <v>-1.8829015376149834</v>
+        <v>-1.8829015301358496</v>
       </c>
       <c r="CT14">
-        <v>-3.0658150927715848</v>
+        <v>-3.0658150843615228</v>
       </c>
       <c r="CU14">
-        <v>-2.2190508638526736</v>
+        <v>-2.2190508559903814</v>
       </c>
       <c r="CV14">
         <v>0.93385038354414862</v>
@@ -6838,7 +6838,7 @@
         <v>1.1350631765965149E-2</v>
       </c>
       <c r="DD14">
-        <v>1.0029717751085079</v>
+        <v>1.0029717751085077</v>
       </c>
       <c r="DE14">
         <v>3.6737830472574175E-3</v>
@@ -6877,25 +6877,25 @@
         <v>0.97190668804716052</v>
       </c>
       <c r="DQ14">
-        <v>0.92390092044351735</v>
+        <v>0.93108341303335174</v>
       </c>
       <c r="DR14">
-        <v>0.95983549878337926</v>
+        <v>0.96729735016259644</v>
       </c>
       <c r="DS14">
-        <v>0.95918397096006891</v>
+        <v>0.96664075730075272</v>
       </c>
       <c r="DT14">
-        <v>0.9627527430405447</v>
+        <v>0.9702372733507989</v>
       </c>
       <c r="DU14">
-        <v>0.95924568121743758</v>
+        <v>0.96670294729946205</v>
       </c>
       <c r="DV14">
-        <v>0.97149154463932708</v>
+        <v>0.97904401121454032</v>
       </c>
       <c r="DW14">
-        <v>0.95968143350738921</v>
+        <v>0.96714208716867067</v>
       </c>
       <c r="DX14">
         <v>1524.7934586181864</v>
@@ -6954,31 +6954,31 @@
     </row>
     <row r="15" spans="1:145" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>0.94611293878051417</v>
+        <v>0.95263007913534881</v>
       </c>
       <c r="B15">
-        <v>1.2441726158506783</v>
+        <v>1.2527428903187474</v>
       </c>
       <c r="C15">
-        <v>1.1319900204786268</v>
+        <v>1.1397875439468508</v>
       </c>
       <c r="D15">
-        <v>1.0445587626706154</v>
+        <v>1.0517540305780295</v>
       </c>
       <c r="E15">
-        <v>0.98500687830413136</v>
+        <v>0.99179193304047153</v>
       </c>
       <c r="F15">
-        <v>0.92768665484842949</v>
+        <v>0.93407686883572261</v>
       </c>
       <c r="G15">
-        <v>0.94173798678123222</v>
+        <v>0.94822499101271795</v>
       </c>
       <c r="H15">
-        <v>0.99311802786387926</v>
+        <v>0.99995895489405795</v>
       </c>
       <c r="I15">
-        <v>0.93954995758719584</v>
+        <v>0.94602188994642067</v>
       </c>
       <c r="J15">
         <v>0.10756847324030137</v>
@@ -7089,16 +7089,16 @@
         <v>-0.94616827196015696</v>
       </c>
       <c r="AT15">
-        <v>-0.58191318919309054</v>
+        <v>-0.58191318919309076</v>
       </c>
       <c r="AU15">
-        <v>-1.7456380912891427</v>
+        <v>-1.7456380912891429</v>
       </c>
       <c r="AV15">
-        <v>-1.779454258810043</v>
+        <v>-1.7794542588100433</v>
       </c>
       <c r="AW15">
-        <v>-1.2191153784460509</v>
+        <v>-1.2191153784460511</v>
       </c>
       <c r="AX15">
         <v>-0.83249444697154817</v>
@@ -7107,13 +7107,13 @@
         <v>-0.6682251112692974</v>
       </c>
       <c r="AZ15">
-        <v>-0.89463340258885016</v>
+        <v>-0.89463340258885038</v>
       </c>
       <c r="BA15">
-        <v>-1.7122362139999245</v>
+        <v>-1.7122362139999248</v>
       </c>
       <c r="BB15">
-        <v>-1.3335660052065077</v>
+        <v>-1.3335660052065079</v>
       </c>
       <c r="BC15">
         <v>-0.61623592049346065</v>
@@ -7170,37 +7170,37 @@
         <v>-1.8220570153373239</v>
       </c>
       <c r="BU15">
-        <v>-0.62858407224841994</v>
+        <v>-0.62858407224842017</v>
       </c>
       <c r="BV15">
-        <v>-1.2926893403990798</v>
+        <v>-1.29268934039908</v>
       </c>
       <c r="BW15">
-        <v>-1.8106408190865895</v>
+        <v>-1.8106408190865897</v>
       </c>
       <c r="BX15">
-        <v>-0.89059190131942512</v>
+        <v>-0.89059190131942545</v>
       </c>
       <c r="BY15">
-        <v>-0.94959195783072203</v>
+        <v>-0.94959195783072214</v>
       </c>
       <c r="BZ15">
-        <v>-1.2703748525987952</v>
+        <v>-1.2703748525987955</v>
       </c>
       <c r="CA15">
-        <v>-0.48399325022573264</v>
+        <v>-0.48399325022573281</v>
       </c>
       <c r="CB15">
-        <v>-1.0829516917021049</v>
+        <v>-1.0829516917021051</v>
       </c>
       <c r="CC15">
-        <v>-0.75935310582714366</v>
+        <v>-0.75935310582714399</v>
       </c>
       <c r="CD15">
         <v>-4.1936702144116138</v>
       </c>
       <c r="CE15">
-        <v>-2.5986772726114888</v>
+        <v>-2.5986772726114884</v>
       </c>
       <c r="CF15">
         <v>-3.0137346709669286</v>
@@ -7212,43 +7212,43 @@
         <v>-2.643219259557394</v>
       </c>
       <c r="CI15">
-        <v>-3.2851591794567234</v>
+        <v>-3.285159179456723</v>
       </c>
       <c r="CJ15">
-        <v>-2.7628783592752382</v>
+        <v>-2.7628783592752377</v>
       </c>
       <c r="CK15">
-        <v>-2.9246701208307337</v>
+        <v>-2.9246701208307333</v>
       </c>
       <c r="CL15">
         <v>-3.2329301399420176</v>
       </c>
       <c r="CM15">
-        <v>-4.0291285887841504</v>
+        <v>-4.0291285801198065</v>
       </c>
       <c r="CN15">
-        <v>-2.926363621143671</v>
+        <v>-2.9263636127951442</v>
       </c>
       <c r="CO15">
-        <v>-2.7644919532412291</v>
+        <v>-2.7644919449757683</v>
       </c>
       <c r="CP15">
-        <v>-2.5323282845935933</v>
+        <v>-2.5323282764733803</v>
       </c>
       <c r="CQ15">
-        <v>-2.257708078891937</v>
+        <v>-2.2577080709932806</v>
       </c>
       <c r="CR15">
-        <v>-3.091194889213865</v>
+        <v>-3.0911948807934984</v>
       </c>
       <c r="CS15">
-        <v>-1.8829015376149834</v>
+        <v>-1.8829015301358496</v>
       </c>
       <c r="CT15">
-        <v>-3.0658150927715848</v>
+        <v>-3.0658150843615228</v>
       </c>
       <c r="CU15">
-        <v>-2.2190508638526736</v>
+        <v>-2.2190508559903814</v>
       </c>
       <c r="CV15">
         <v>0.97088793235937687</v>
@@ -7314,25 +7314,25 @@
         <v>1.0167358239360584</v>
       </c>
       <c r="DQ15">
-        <v>0.93289989495196202</v>
+        <v>0.93932601946966388</v>
       </c>
       <c r="DR15">
-        <v>0.97505993063081109</v>
+        <v>0.98177646748579483</v>
       </c>
       <c r="DS15">
-        <v>0.97027155484371441</v>
+        <v>0.97695510777490102</v>
       </c>
       <c r="DT15">
-        <v>0.97433189361202532</v>
+        <v>0.98104341550606677</v>
       </c>
       <c r="DU15">
-        <v>0.9682524166632791</v>
+        <v>0.97492206109963575</v>
       </c>
       <c r="DV15">
-        <v>0.94809974057295798</v>
+        <v>0.9546305666788355</v>
       </c>
       <c r="DW15">
-        <v>0.9662832990887128</v>
+        <v>0.97293937958879639</v>
       </c>
       <c r="DX15">
         <v>1673.3791489394039</v>
@@ -7359,7 +7359,7 @@
         <v>1405.9023210724586</v>
       </c>
       <c r="EF15">
-        <v>91742.944204493149</v>
+        <v>91742.944204493164</v>
       </c>
       <c r="EG15">
         <v>-4.8243208496956136</v>
@@ -7391,31 +7391,31 @@
     </row>
     <row r="16" spans="1:145" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>1.005528914680508</v>
+        <v>0.98852142034818646</v>
       </c>
       <c r="B16">
-        <v>1.2435912141834109</v>
+        <v>1.2225571392620851</v>
       </c>
       <c r="C16">
-        <v>1.0195664045767889</v>
+        <v>1.0023214804437273</v>
       </c>
       <c r="D16">
-        <v>1.0775832470194513</v>
+        <v>1.059357027267122</v>
       </c>
       <c r="E16">
-        <v>1.018029514611996</v>
+        <v>1.0008105854025848</v>
       </c>
       <c r="F16">
-        <v>1.1788125348682619</v>
+        <v>1.1588741251289341</v>
       </c>
       <c r="G16">
-        <v>1.0188743514970859</v>
+        <v>1.0016411327348582</v>
       </c>
       <c r="H16">
-        <v>1.0130516100057352</v>
+        <v>0.99591687696725639</v>
       </c>
       <c r="I16">
-        <v>1.0043623181076731</v>
+        <v>0.98737455556457321</v>
       </c>
       <c r="J16">
         <v>7.2809791273946475E-2</v>
@@ -7442,7 +7442,7 @@
         <v>0.11191041104094061</v>
       </c>
       <c r="R16">
-        <v>0.21727862423226468</v>
+        <v>0.21727862423226474</v>
       </c>
       <c r="S16">
         <v>-2.784438324131246</v>
@@ -7526,16 +7526,16 @@
         <v>-0.94616827196015696</v>
       </c>
       <c r="AT16">
-        <v>-0.58191318919309054</v>
+        <v>-0.58191318919309076</v>
       </c>
       <c r="AU16">
-        <v>-1.7456380912891427</v>
+        <v>-1.7456380912891429</v>
       </c>
       <c r="AV16">
-        <v>-1.779454258810043</v>
+        <v>-1.7794542588100433</v>
       </c>
       <c r="AW16">
-        <v>-1.2191153784460509</v>
+        <v>-1.2191153784460511</v>
       </c>
       <c r="AX16">
         <v>-0.83249444697154817</v>
@@ -7544,13 +7544,13 @@
         <v>-0.6682251112692974</v>
       </c>
       <c r="AZ16">
-        <v>-0.89463340258885016</v>
+        <v>-0.89463340258885038</v>
       </c>
       <c r="BA16">
-        <v>-1.7122362139999245</v>
+        <v>-1.7122362139999248</v>
       </c>
       <c r="BB16">
-        <v>-1.3335660052065077</v>
+        <v>-1.3335660052065079</v>
       </c>
       <c r="BC16">
         <v>-0.61623592049346065</v>
@@ -7607,37 +7607,37 @@
         <v>-1.8220570153373239</v>
       </c>
       <c r="BU16">
-        <v>-0.62858407224841994</v>
+        <v>-0.62858407224842017</v>
       </c>
       <c r="BV16">
-        <v>-1.2926893403990798</v>
+        <v>-1.29268934039908</v>
       </c>
       <c r="BW16">
-        <v>-1.8106408190865895</v>
+        <v>-1.8106408190865897</v>
       </c>
       <c r="BX16">
-        <v>-0.89059190131942512</v>
+        <v>-0.89059190131942545</v>
       </c>
       <c r="BY16">
-        <v>-0.94959195783072203</v>
+        <v>-0.94959195783072214</v>
       </c>
       <c r="BZ16">
-        <v>-1.2703748525987952</v>
+        <v>-1.2703748525987955</v>
       </c>
       <c r="CA16">
-        <v>-0.48399325022573264</v>
+        <v>-0.48399325022573281</v>
       </c>
       <c r="CB16">
-        <v>-1.0829516917021049</v>
+        <v>-1.0829516917021051</v>
       </c>
       <c r="CC16">
-        <v>-0.75935310582714366</v>
+        <v>-0.75935310582714399</v>
       </c>
       <c r="CD16">
         <v>-4.1936702144116138</v>
       </c>
       <c r="CE16">
-        <v>-2.5986772726114888</v>
+        <v>-2.5986772726114884</v>
       </c>
       <c r="CF16">
         <v>-3.0137346709669286</v>
@@ -7649,61 +7649,61 @@
         <v>-2.643219259557394</v>
       </c>
       <c r="CI16">
-        <v>-3.2851591794567234</v>
+        <v>-3.285159179456723</v>
       </c>
       <c r="CJ16">
-        <v>-2.7628783592752382</v>
+        <v>-2.7628783592752377</v>
       </c>
       <c r="CK16">
-        <v>-2.9246701208307337</v>
+        <v>-2.9246701208307333</v>
       </c>
       <c r="CL16">
         <v>-3.2329301399420176</v>
       </c>
       <c r="CM16">
-        <v>-4.0291285887841504</v>
+        <v>-4.0291285801198065</v>
       </c>
       <c r="CN16">
-        <v>-2.926363621143671</v>
+        <v>-2.9263636127951442</v>
       </c>
       <c r="CO16">
-        <v>-2.7644919532412291</v>
+        <v>-2.7644919449757683</v>
       </c>
       <c r="CP16">
-        <v>-2.5323282845935933</v>
+        <v>-2.5323282764733803</v>
       </c>
       <c r="CQ16">
-        <v>-2.257708078891937</v>
+        <v>-2.2577080709932806</v>
       </c>
       <c r="CR16">
-        <v>-3.091194889213865</v>
+        <v>-3.0911948807934984</v>
       </c>
       <c r="CS16">
-        <v>-1.8829015376149834</v>
+        <v>-1.8829015301358496</v>
       </c>
       <c r="CT16">
-        <v>-3.0658150927715848</v>
+        <v>-3.0658150843615228</v>
       </c>
       <c r="CU16">
-        <v>-2.2190508638526736</v>
+        <v>-2.2190508559903814</v>
       </c>
       <c r="CV16">
-        <v>0.96359675019275493</v>
+        <v>0.96359675019275515</v>
       </c>
       <c r="CW16">
         <v>0.96835944222689352</v>
       </c>
       <c r="CX16">
-        <v>0.96885905470619593</v>
+        <v>0.96885905470619604</v>
       </c>
       <c r="CY16">
-        <v>0.967225926016274</v>
+        <v>0.96722592601627411</v>
       </c>
       <c r="CZ16">
         <v>0.96829022723708902</v>
       </c>
       <c r="DA16">
-        <v>0.9657827382990567</v>
+        <v>0.96578273829905692</v>
       </c>
       <c r="DB16">
         <v>0.96899069611333466</v>
@@ -7751,25 +7751,25 @@
         <v>0.96482760077152119</v>
       </c>
       <c r="DQ16">
-        <v>1.023046265723544</v>
+        <v>1.0057424832942499</v>
       </c>
       <c r="DR16">
-        <v>1.0195976750634512</v>
+        <v>1.002352222022054</v>
       </c>
       <c r="DS16">
-        <v>1.0196524809947041</v>
+        <v>1.00240610096697</v>
       </c>
       <c r="DT16">
-        <v>1.0370495275538938</v>
+        <v>1.0195088942566268</v>
       </c>
       <c r="DU16">
-        <v>1.0197471696592799</v>
+        <v>1.0024991880695193</v>
       </c>
       <c r="DV16">
-        <v>1.0235592224408645</v>
+        <v>1.006246763872739</v>
       </c>
       <c r="DW16">
-        <v>1.0215940794780942</v>
+        <v>1.004314859295572</v>
       </c>
       <c r="DX16">
         <v>1991.6986840137035</v>
@@ -7796,7 +7796,7 @@
         <v>1473.10812417949</v>
       </c>
       <c r="EF16">
-        <v>76646.25019088063</v>
+        <v>76646.250190880615</v>
       </c>
       <c r="EG16">
         <v>-4.8243208496956136</v>
@@ -7963,16 +7963,16 @@
         <v>-0.94616827196015696</v>
       </c>
       <c r="AT17">
-        <v>-0.58191318919309054</v>
+        <v>-0.58191318919309076</v>
       </c>
       <c r="AU17">
-        <v>-1.7456380912891427</v>
+        <v>-1.7456380912891429</v>
       </c>
       <c r="AV17">
-        <v>-1.779454258810043</v>
+        <v>-1.7794542588100433</v>
       </c>
       <c r="AW17">
-        <v>-1.2191153784460509</v>
+        <v>-1.2191153784460511</v>
       </c>
       <c r="AX17">
         <v>-0.83249444697154817</v>
@@ -7981,13 +7981,13 @@
         <v>-0.6682251112692974</v>
       </c>
       <c r="AZ17">
-        <v>-0.89463340258885016</v>
+        <v>-0.89463340258885038</v>
       </c>
       <c r="BA17">
-        <v>-1.7122362139999245</v>
+        <v>-1.7122362139999248</v>
       </c>
       <c r="BB17">
-        <v>-1.3335660052065077</v>
+        <v>-1.3335660052065079</v>
       </c>
       <c r="BC17">
         <v>-0.61623592049346065</v>
@@ -8044,37 +8044,37 @@
         <v>-1.8220570153373239</v>
       </c>
       <c r="BU17">
-        <v>-0.62858407224841994</v>
+        <v>-0.62858407224842017</v>
       </c>
       <c r="BV17">
-        <v>-1.2926893403990798</v>
+        <v>-1.29268934039908</v>
       </c>
       <c r="BW17">
-        <v>-1.8106408190865895</v>
+        <v>-1.8106408190865897</v>
       </c>
       <c r="BX17">
-        <v>-0.89059190131942512</v>
+        <v>-0.89059190131942545</v>
       </c>
       <c r="BY17">
-        <v>-0.94959195783072203</v>
+        <v>-0.94959195783072214</v>
       </c>
       <c r="BZ17">
-        <v>-1.2703748525987952</v>
+        <v>-1.2703748525987955</v>
       </c>
       <c r="CA17">
-        <v>-0.48399325022573264</v>
+        <v>-0.48399325022573281</v>
       </c>
       <c r="CB17">
-        <v>-1.0829516917021049</v>
+        <v>-1.0829516917021051</v>
       </c>
       <c r="CC17">
-        <v>-0.75935310582714366</v>
+        <v>-0.75935310582714399</v>
       </c>
       <c r="CD17">
         <v>-4.1936702144116138</v>
       </c>
       <c r="CE17">
-        <v>-2.5986772726114888</v>
+        <v>-2.5986772726114884</v>
       </c>
       <c r="CF17">
         <v>-3.0137346709669286</v>
@@ -8086,43 +8086,43 @@
         <v>-2.643219259557394</v>
       </c>
       <c r="CI17">
-        <v>-3.2851591794567234</v>
+        <v>-3.285159179456723</v>
       </c>
       <c r="CJ17">
-        <v>-2.7628783592752382</v>
+        <v>-2.7628783592752377</v>
       </c>
       <c r="CK17">
-        <v>-2.9246701208307337</v>
+        <v>-2.9246701208307333</v>
       </c>
       <c r="CL17">
         <v>-3.2329301399420176</v>
       </c>
       <c r="CM17">
-        <v>-4.0291285887841504</v>
+        <v>-4.0291285801198065</v>
       </c>
       <c r="CN17">
-        <v>-2.926363621143671</v>
+        <v>-2.9263636127951442</v>
       </c>
       <c r="CO17">
-        <v>-2.7644919532412291</v>
+        <v>-2.7644919449757683</v>
       </c>
       <c r="CP17">
-        <v>-2.5323282845935933</v>
+        <v>-2.5323282764733803</v>
       </c>
       <c r="CQ17">
-        <v>-2.257708078891937</v>
+        <v>-2.2577080709932806</v>
       </c>
       <c r="CR17">
-        <v>-3.091194889213865</v>
+        <v>-3.0911948807934984</v>
       </c>
       <c r="CS17">
-        <v>-1.8829015376149834</v>
+        <v>-1.8829015301358496</v>
       </c>
       <c r="CT17">
-        <v>-3.0658150927715848</v>
+        <v>-3.0658150843615228</v>
       </c>
       <c r="CU17">
-        <v>-2.2190508638526736</v>
+        <v>-2.2190508559903814</v>
       </c>
       <c r="CV17">
         <v>1</v>
@@ -8265,31 +8265,31 @@
     </row>
     <row r="18" spans="1:145" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>1.0210007621537824</v>
+        <v>1.0276526125628385</v>
       </c>
       <c r="B18">
-        <v>0.94443085847661945</v>
+        <v>0.95058385368010068</v>
       </c>
       <c r="C18">
-        <v>1.106088839536175</v>
+        <v>1.1132950413064855</v>
       </c>
       <c r="D18">
-        <v>0.92311214524904028</v>
+        <v>0.92912624840017433</v>
       </c>
       <c r="E18">
-        <v>0.98160883839496504</v>
+        <v>0.98800404924616614</v>
       </c>
       <c r="F18">
-        <v>0.85677941598965501</v>
+        <v>0.86236135943179237</v>
       </c>
       <c r="G18">
-        <v>0.95693418663157015</v>
+        <v>0.96316864139079794</v>
       </c>
       <c r="H18">
-        <v>0.99275205306795677</v>
+        <v>0.99921986229501436</v>
       </c>
       <c r="I18">
-        <v>0.99565963598530549</v>
+        <v>1.0021463882017665</v>
       </c>
       <c r="J18">
         <v>6.7645295946205664E-2</v>
@@ -8400,16 +8400,16 @@
         <v>-0.94616827196015696</v>
       </c>
       <c r="AT18">
-        <v>-0.58191318919309054</v>
+        <v>-0.58191318919309076</v>
       </c>
       <c r="AU18">
-        <v>-1.7456380912891427</v>
+        <v>-1.7456380912891429</v>
       </c>
       <c r="AV18">
-        <v>-1.779454258810043</v>
+        <v>-1.7794542588100433</v>
       </c>
       <c r="AW18">
-        <v>-1.2191153784460509</v>
+        <v>-1.2191153784460511</v>
       </c>
       <c r="AX18">
         <v>-0.83249444697154817</v>
@@ -8418,13 +8418,13 @@
         <v>-0.6682251112692974</v>
       </c>
       <c r="AZ18">
-        <v>-0.89463340258885016</v>
+        <v>-0.89463340258885038</v>
       </c>
       <c r="BA18">
-        <v>-1.7122362139999245</v>
+        <v>-1.7122362139999248</v>
       </c>
       <c r="BB18">
-        <v>-1.3335660052065077</v>
+        <v>-1.3335660052065079</v>
       </c>
       <c r="BC18">
         <v>-0.61623592049346065</v>
@@ -8481,37 +8481,37 @@
         <v>-1.8220570153373239</v>
       </c>
       <c r="BU18">
-        <v>-0.62858407224841994</v>
+        <v>-0.62858407224842017</v>
       </c>
       <c r="BV18">
-        <v>-1.2926893403990798</v>
+        <v>-1.29268934039908</v>
       </c>
       <c r="BW18">
-        <v>-1.8106408190865895</v>
+        <v>-1.8106408190865897</v>
       </c>
       <c r="BX18">
-        <v>-0.89059190131942512</v>
+        <v>-0.89059190131942545</v>
       </c>
       <c r="BY18">
-        <v>-0.94959195783072203</v>
+        <v>-0.94959195783072214</v>
       </c>
       <c r="BZ18">
-        <v>-1.2703748525987952</v>
+        <v>-1.2703748525987955</v>
       </c>
       <c r="CA18">
-        <v>-0.48399325022573264</v>
+        <v>-0.48399325022573281</v>
       </c>
       <c r="CB18">
-        <v>-1.0829516917021049</v>
+        <v>-1.0829516917021051</v>
       </c>
       <c r="CC18">
-        <v>-0.75935310582714366</v>
+        <v>-0.75935310582714399</v>
       </c>
       <c r="CD18">
         <v>-4.1936702144116138</v>
       </c>
       <c r="CE18">
-        <v>-2.5986772726114888</v>
+        <v>-2.5986772726114884</v>
       </c>
       <c r="CF18">
         <v>-3.0137346709669286</v>
@@ -8523,43 +8523,43 @@
         <v>-2.643219259557394</v>
       </c>
       <c r="CI18">
-        <v>-3.2851591794567234</v>
+        <v>-3.285159179456723</v>
       </c>
       <c r="CJ18">
-        <v>-2.7628783592752382</v>
+        <v>-2.7628783592752377</v>
       </c>
       <c r="CK18">
-        <v>-2.9246701208307337</v>
+        <v>-2.9246701208307333</v>
       </c>
       <c r="CL18">
         <v>-3.2329301399420176</v>
       </c>
       <c r="CM18">
-        <v>-4.0291285887841504</v>
+        <v>-4.0291285801198065</v>
       </c>
       <c r="CN18">
-        <v>-2.926363621143671</v>
+        <v>-2.9263636127951442</v>
       </c>
       <c r="CO18">
-        <v>-2.7644919532412291</v>
+        <v>-2.7644919449757683</v>
       </c>
       <c r="CP18">
-        <v>-2.5323282845935933</v>
+        <v>-2.5323282764733803</v>
       </c>
       <c r="CQ18">
-        <v>-2.257708078891937</v>
+        <v>-2.2577080709932806</v>
       </c>
       <c r="CR18">
-        <v>-3.091194889213865</v>
+        <v>-3.0911948807934984</v>
       </c>
       <c r="CS18">
-        <v>-1.8829015376149834</v>
+        <v>-1.8829015301358496</v>
       </c>
       <c r="CT18">
-        <v>-3.0658150927715848</v>
+        <v>-3.0658150843615228</v>
       </c>
       <c r="CU18">
-        <v>-2.2190508638526736</v>
+        <v>-2.2190508559903814</v>
       </c>
       <c r="CV18">
         <v>1.0124606817307771</v>
@@ -8625,25 +8625,25 @@
         <v>1.0640741148628161</v>
       </c>
       <c r="DQ18">
-        <v>0.9733716132680631</v>
+        <v>0.97971315835194961</v>
       </c>
       <c r="DR18">
-        <v>0.96923078353286918</v>
+        <v>0.9755453509875619</v>
       </c>
       <c r="DS18">
-        <v>0.96246428666439099</v>
+        <v>0.96873477019022602</v>
       </c>
       <c r="DT18">
-        <v>0.95707754771373565</v>
+        <v>0.96331293647468841</v>
       </c>
       <c r="DU18">
-        <v>0.96273973573460003</v>
+        <v>0.96901201381934066</v>
       </c>
       <c r="DV18">
-        <v>0.94812229137748627</v>
+        <v>0.95429933637638564</v>
       </c>
       <c r="DW18">
-        <v>0.95648728901514979</v>
+        <v>0.9627188322230813</v>
       </c>
       <c r="DX18">
         <v>2928.5161683743959</v>
@@ -8702,31 +8702,31 @@
     </row>
     <row r="19" spans="1:145" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>1.0783078126491479</v>
+        <v>1.0873560330138723</v>
       </c>
       <c r="B19">
-        <v>0.9485178215933654</v>
+        <v>0.95647695735123417</v>
       </c>
       <c r="C19">
-        <v>1.0998839392561361</v>
+        <v>1.1091132076906856</v>
       </c>
       <c r="D19">
-        <v>1.0329400845901935</v>
+        <v>1.0416076184792114</v>
       </c>
       <c r="E19">
-        <v>0.97559087973453573</v>
+        <v>0.98377718902591205</v>
       </c>
       <c r="F19">
-        <v>0.82749550475813727</v>
+        <v>0.83443912659787511</v>
       </c>
       <c r="G19">
-        <v>0.96867011541251391</v>
+        <v>0.97679835167507278</v>
       </c>
       <c r="H19">
-        <v>1.0148268119727448</v>
+        <v>1.0233423550477796</v>
       </c>
       <c r="I19">
-        <v>1.0057990318586731</v>
+        <v>1.0142388216627785</v>
       </c>
       <c r="J19">
         <v>6.3137116666298676E-2</v>
@@ -8753,7 +8753,7 @@
         <v>6.4132708532986457E-2</v>
       </c>
       <c r="R19">
-        <v>0.2530976654183299</v>
+        <v>0.25309766541832979</v>
       </c>
       <c r="S19">
         <v>-2.784438324131246</v>
@@ -8837,16 +8837,16 @@
         <v>-0.94616827196015696</v>
       </c>
       <c r="AT19">
-        <v>-0.58191318919309054</v>
+        <v>-0.58191318919309076</v>
       </c>
       <c r="AU19">
-        <v>-1.7456380912891427</v>
+        <v>-1.7456380912891429</v>
       </c>
       <c r="AV19">
-        <v>-1.779454258810043</v>
+        <v>-1.7794542588100433</v>
       </c>
       <c r="AW19">
-        <v>-1.2191153784460509</v>
+        <v>-1.2191153784460511</v>
       </c>
       <c r="AX19">
         <v>-0.83249444697154817</v>
@@ -8855,13 +8855,13 @@
         <v>-0.6682251112692974</v>
       </c>
       <c r="AZ19">
-        <v>-0.89463340258885016</v>
+        <v>-0.89463340258885038</v>
       </c>
       <c r="BA19">
-        <v>-1.7122362139999245</v>
+        <v>-1.7122362139999248</v>
       </c>
       <c r="BB19">
-        <v>-1.3335660052065077</v>
+        <v>-1.3335660052065079</v>
       </c>
       <c r="BC19">
         <v>-0.61623592049346065</v>
@@ -8918,37 +8918,37 @@
         <v>-1.8220570153373239</v>
       </c>
       <c r="BU19">
-        <v>-0.62858407224841994</v>
+        <v>-0.62858407224842017</v>
       </c>
       <c r="BV19">
-        <v>-1.2926893403990798</v>
+        <v>-1.29268934039908</v>
       </c>
       <c r="BW19">
-        <v>-1.8106408190865895</v>
+        <v>-1.8106408190865897</v>
       </c>
       <c r="BX19">
-        <v>-0.89059190131942512</v>
+        <v>-0.89059190131942545</v>
       </c>
       <c r="BY19">
-        <v>-0.94959195783072203</v>
+        <v>-0.94959195783072214</v>
       </c>
       <c r="BZ19">
-        <v>-1.2703748525987952</v>
+        <v>-1.2703748525987955</v>
       </c>
       <c r="CA19">
-        <v>-0.48399325022573264</v>
+        <v>-0.48399325022573281</v>
       </c>
       <c r="CB19">
-        <v>-1.0829516917021049</v>
+        <v>-1.0829516917021051</v>
       </c>
       <c r="CC19">
-        <v>-0.75935310582714366</v>
+        <v>-0.75935310582714399</v>
       </c>
       <c r="CD19">
         <v>-4.1936702144116138</v>
       </c>
       <c r="CE19">
-        <v>-2.5986772726114888</v>
+        <v>-2.5986772726114884</v>
       </c>
       <c r="CF19">
         <v>-3.0137346709669286</v>
@@ -8960,55 +8960,55 @@
         <v>-2.643219259557394</v>
       </c>
       <c r="CI19">
-        <v>-3.2851591794567234</v>
+        <v>-3.285159179456723</v>
       </c>
       <c r="CJ19">
-        <v>-2.7628783592752382</v>
+        <v>-2.7628783592752377</v>
       </c>
       <c r="CK19">
-        <v>-2.9246701208307337</v>
+        <v>-2.9246701208307333</v>
       </c>
       <c r="CL19">
         <v>-3.2329301399420176</v>
       </c>
       <c r="CM19">
-        <v>-4.0291285887841504</v>
+        <v>-4.0291285801198065</v>
       </c>
       <c r="CN19">
-        <v>-2.926363621143671</v>
+        <v>-2.9263636127951442</v>
       </c>
       <c r="CO19">
-        <v>-2.7644919532412291</v>
+        <v>-2.7644919449757683</v>
       </c>
       <c r="CP19">
-        <v>-2.5323282845935933</v>
+        <v>-2.5323282764733803</v>
       </c>
       <c r="CQ19">
-        <v>-2.257708078891937</v>
+        <v>-2.2577080709932806</v>
       </c>
       <c r="CR19">
-        <v>-3.091194889213865</v>
+        <v>-3.0911948807934984</v>
       </c>
       <c r="CS19">
-        <v>-1.8829015376149834</v>
+        <v>-1.8829015301358496</v>
       </c>
       <c r="CT19">
-        <v>-3.0658150927715848</v>
+        <v>-3.0658150843615228</v>
       </c>
       <c r="CU19">
-        <v>-2.2190508638526736</v>
+        <v>-2.2190508559903814</v>
       </c>
       <c r="CV19">
-        <v>1.036634882921363</v>
+        <v>1.0366348829213627</v>
       </c>
       <c r="CW19">
         <v>1.0657497544583323</v>
       </c>
       <c r="CX19">
-        <v>1.055674453244323</v>
+        <v>1.0556744532443227</v>
       </c>
       <c r="CY19">
-        <v>1.0358940271324222</v>
+        <v>1.035894027132422</v>
       </c>
       <c r="CZ19">
         <v>1.0593513506276813</v>
@@ -9062,25 +9062,25 @@
         <v>1.1032662524042771</v>
       </c>
       <c r="DQ19">
-        <v>0.98442376639718099</v>
+        <v>0.99268419358332027</v>
       </c>
       <c r="DR19">
-        <v>0.95878329352145053</v>
+        <v>0.96682856818238905</v>
       </c>
       <c r="DS19">
-        <v>0.94981182947549481</v>
+        <v>0.95778182342091789</v>
       </c>
       <c r="DT19">
-        <v>0.94673211433059479</v>
+        <v>0.95467626598779098</v>
       </c>
       <c r="DU19">
-        <v>0.95224252092573558</v>
+        <v>0.96023291111759468</v>
       </c>
       <c r="DV19">
-        <v>0.94521437043880385</v>
+        <v>0.95314578651064241</v>
       </c>
       <c r="DW19">
-        <v>0.94525450371758191</v>
+        <v>0.95318625655295508</v>
       </c>
       <c r="DX19">
         <v>3317.1731348665662</v>
@@ -9107,7 +9107,7 @@
         <v>1125.5008919740897</v>
       </c>
       <c r="EF19">
-        <v>117220.88004475182</v>
+        <v>117220.88004475183</v>
       </c>
       <c r="EG19">
         <v>-4.8243208496956136</v>
@@ -9139,31 +9139,31 @@
     </row>
     <row r="20" spans="1:145" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>1.0208442990538573</v>
+        <v>1.0312017230278707</v>
       </c>
       <c r="B20">
-        <v>1.0833157270827638</v>
+        <v>1.0943069823540252</v>
       </c>
       <c r="C20">
-        <v>1.0420238856832993</v>
+        <v>1.0525961964510369</v>
       </c>
       <c r="D20">
-        <v>1.1248563268384879</v>
+        <v>1.1362690505003781</v>
       </c>
       <c r="E20">
-        <v>0.98998902165211411</v>
+        <v>1.0000333898641647</v>
       </c>
       <c r="F20">
-        <v>0.90810851300810003</v>
+        <v>0.91732212657517698</v>
       </c>
       <c r="G20">
-        <v>0.98338448757231656</v>
+        <v>0.99336184658455207</v>
       </c>
       <c r="H20">
-        <v>1.0197699069215567</v>
+        <v>1.0301164301785466</v>
       </c>
       <c r="I20">
-        <v>1.0238839732438054</v>
+        <v>1.0342722375666917</v>
       </c>
       <c r="J20">
         <v>6.0443427327030196E-2</v>
@@ -9187,10 +9187,10 @@
         <v>0.60775085163449305</v>
       </c>
       <c r="Q20">
-        <v>5.7297649144993155E-2</v>
+        <v>5.7297649144993135E-2</v>
       </c>
       <c r="R20">
-        <v>0.2608191818970671</v>
+        <v>0.26081918189706704</v>
       </c>
       <c r="S20">
         <v>-2.784438324131246</v>
@@ -9274,16 +9274,16 @@
         <v>-0.94616827196015696</v>
       </c>
       <c r="AT20">
-        <v>-0.58191318919309054</v>
+        <v>-0.58191318919309076</v>
       </c>
       <c r="AU20">
-        <v>-1.7456380912891427</v>
+        <v>-1.7456380912891429</v>
       </c>
       <c r="AV20">
-        <v>-1.779454258810043</v>
+        <v>-1.7794542588100433</v>
       </c>
       <c r="AW20">
-        <v>-1.2191153784460509</v>
+        <v>-1.2191153784460511</v>
       </c>
       <c r="AX20">
         <v>-0.83249444697154817</v>
@@ -9292,13 +9292,13 @@
         <v>-0.6682251112692974</v>
       </c>
       <c r="AZ20">
-        <v>-0.89463340258885016</v>
+        <v>-0.89463340258885038</v>
       </c>
       <c r="BA20">
-        <v>-1.7122362139999245</v>
+        <v>-1.7122362139999248</v>
       </c>
       <c r="BB20">
-        <v>-1.3335660052065077</v>
+        <v>-1.3335660052065079</v>
       </c>
       <c r="BC20">
         <v>-0.61623592049346065</v>
@@ -9355,37 +9355,37 @@
         <v>-1.8220570153373239</v>
       </c>
       <c r="BU20">
-        <v>-0.62858407224841994</v>
+        <v>-0.62858407224842017</v>
       </c>
       <c r="BV20">
-        <v>-1.2926893403990798</v>
+        <v>-1.29268934039908</v>
       </c>
       <c r="BW20">
-        <v>-1.8106408190865895</v>
+        <v>-1.8106408190865897</v>
       </c>
       <c r="BX20">
-        <v>-0.89059190131942512</v>
+        <v>-0.89059190131942545</v>
       </c>
       <c r="BY20">
-        <v>-0.94959195783072203</v>
+        <v>-0.94959195783072214</v>
       </c>
       <c r="BZ20">
-        <v>-1.2703748525987952</v>
+        <v>-1.2703748525987955</v>
       </c>
       <c r="CA20">
-        <v>-0.48399325022573264</v>
+        <v>-0.48399325022573281</v>
       </c>
       <c r="CB20">
-        <v>-1.0829516917021049</v>
+        <v>-1.0829516917021051</v>
       </c>
       <c r="CC20">
-        <v>-0.75935310582714366</v>
+        <v>-0.75935310582714399</v>
       </c>
       <c r="CD20">
         <v>-4.1936702144116138</v>
       </c>
       <c r="CE20">
-        <v>-2.5986772726114888</v>
+        <v>-2.5986772726114884</v>
       </c>
       <c r="CF20">
         <v>-3.0137346709669286</v>
@@ -9397,43 +9397,43 @@
         <v>-2.643219259557394</v>
       </c>
       <c r="CI20">
-        <v>-3.2851591794567234</v>
+        <v>-3.285159179456723</v>
       </c>
       <c r="CJ20">
-        <v>-2.7628783592752382</v>
+        <v>-2.7628783592752377</v>
       </c>
       <c r="CK20">
-        <v>-2.9246701208307337</v>
+        <v>-2.9246701208307333</v>
       </c>
       <c r="CL20">
         <v>-3.2329301399420176</v>
       </c>
       <c r="CM20">
-        <v>-4.0291285887841504</v>
+        <v>-4.0291285801198065</v>
       </c>
       <c r="CN20">
-        <v>-2.926363621143671</v>
+        <v>-2.9263636127951442</v>
       </c>
       <c r="CO20">
-        <v>-2.7644919532412291</v>
+        <v>-2.7644919449757683</v>
       </c>
       <c r="CP20">
-        <v>-2.5323282845935933</v>
+        <v>-2.5323282764733803</v>
       </c>
       <c r="CQ20">
-        <v>-2.257708078891937</v>
+        <v>-2.2577080709932806</v>
       </c>
       <c r="CR20">
-        <v>-3.091194889213865</v>
+        <v>-3.0911948807934984</v>
       </c>
       <c r="CS20">
-        <v>-1.8829015376149834</v>
+        <v>-1.8829015301358496</v>
       </c>
       <c r="CT20">
-        <v>-3.0658150927715848</v>
+        <v>-3.0658150843615228</v>
       </c>
       <c r="CU20">
-        <v>-2.2190508638526736</v>
+        <v>-2.2190508559903814</v>
       </c>
       <c r="CV20">
         <v>1.0439571555868719</v>
@@ -9442,16 +9442,16 @@
         <v>1.0794880130385185</v>
       </c>
       <c r="CX20">
-        <v>1.068666149496311</v>
+        <v>1.0686661494963108</v>
       </c>
       <c r="CY20">
-        <v>1.0459887904216496</v>
+        <v>1.0459887904216492</v>
       </c>
       <c r="CZ20">
-        <v>1.0692792430860181</v>
+        <v>1.0692792430860178</v>
       </c>
       <c r="DA20">
-        <v>1.0603970048459428</v>
+        <v>1.0603970048459426</v>
       </c>
       <c r="DB20">
         <v>1.0637390436136529</v>
@@ -9460,7 +9460,7 @@
         <v>1.0407354793479774E-2</v>
       </c>
       <c r="DD20">
-        <v>1.0287041634728231</v>
+        <v>1.0287041634728233</v>
       </c>
       <c r="DE20">
         <v>6.8766979791928069E-4</v>
@@ -9499,25 +9499,25 @@
         <v>1.1025421247160216</v>
       </c>
       <c r="DQ20">
-        <v>1.0046344248674854</v>
+        <v>1.0148273844470073</v>
       </c>
       <c r="DR20">
-        <v>0.96990402823929012</v>
+        <v>0.97974461533360846</v>
       </c>
       <c r="DS20">
-        <v>0.95987230081301234</v>
+        <v>0.96961110661292338</v>
       </c>
       <c r="DT20">
-        <v>0.94286610209942212</v>
+        <v>0.95243236404477427</v>
       </c>
       <c r="DU20">
-        <v>0.9598511493084948</v>
+        <v>0.96958974050653146</v>
       </c>
       <c r="DV20">
-        <v>0.94361285950115392</v>
+        <v>0.95318669800154276</v>
       </c>
       <c r="DW20">
-        <v>0.95511526509182554</v>
+        <v>0.96480580629754797</v>
       </c>
       <c r="DX20">
         <v>3619.3811277129766</v>
@@ -9541,10 +9541,10 @@
         <v>31803.951970775284</v>
       </c>
       <c r="EE20">
-        <v>1443.8315189416692</v>
+        <v>1443.8315189416694</v>
       </c>
       <c r="EF20">
-        <v>115954.50187107781</v>
+        <v>115954.50187107782</v>
       </c>
       <c r="EG20">
         <v>-4.8243208496956136</v>
@@ -9576,31 +9576,31 @@
     </row>
     <row r="21" spans="1:145" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>1.1138417199286619</v>
+        <v>1.1162363647003053</v>
       </c>
       <c r="B21">
-        <v>1.1171165715244782</v>
+        <v>1.1195182568891535</v>
       </c>
       <c r="C21">
-        <v>1.0096159062801826</v>
+        <v>1.0117864763065025</v>
       </c>
       <c r="D21">
-        <v>1.031545917730974</v>
+        <v>1.0337636350191743</v>
       </c>
       <c r="E21">
-        <v>0.99104061422807832</v>
+        <v>0.9931712492930852</v>
       </c>
       <c r="F21">
-        <v>0.95733928317064065</v>
+        <v>0.95939746385117763</v>
       </c>
       <c r="G21">
-        <v>1.010023826403819</v>
+        <v>1.0121952734163155</v>
       </c>
       <c r="H21">
-        <v>1.0342737570228484</v>
+        <v>1.0364973388840675</v>
       </c>
       <c r="I21">
-        <v>1.0488321610256373</v>
+        <v>1.0510870419533258</v>
       </c>
       <c r="J21">
         <v>5.7268582050087856E-2</v>
@@ -9627,7 +9627,7 @@
         <v>4.9216478463368539E-2</v>
       </c>
       <c r="R21">
-        <v>0.25372973454983161</v>
+        <v>0.2537297345498315</v>
       </c>
       <c r="S21">
         <v>-2.784438324131246</v>
@@ -9711,16 +9711,16 @@
         <v>-0.94616827196015696</v>
       </c>
       <c r="AT21">
-        <v>-0.58191318919309054</v>
+        <v>-0.58191318919309076</v>
       </c>
       <c r="AU21">
-        <v>-1.7456380912891427</v>
+        <v>-1.7456380912891429</v>
       </c>
       <c r="AV21">
-        <v>-1.779454258810043</v>
+        <v>-1.7794542588100433</v>
       </c>
       <c r="AW21">
-        <v>-1.2191153784460509</v>
+        <v>-1.2191153784460511</v>
       </c>
       <c r="AX21">
         <v>-0.83249444697154817</v>
@@ -9729,13 +9729,13 @@
         <v>-0.6682251112692974</v>
       </c>
       <c r="AZ21">
-        <v>-0.89463340258885016</v>
+        <v>-0.89463340258885038</v>
       </c>
       <c r="BA21">
-        <v>-1.7122362139999245</v>
+        <v>-1.7122362139999248</v>
       </c>
       <c r="BB21">
-        <v>-1.3335660052065077</v>
+        <v>-1.3335660052065079</v>
       </c>
       <c r="BC21">
         <v>-0.61623592049346065</v>
@@ -9792,37 +9792,37 @@
         <v>-1.8220570153373239</v>
       </c>
       <c r="BU21">
-        <v>-0.62858407224841994</v>
+        <v>-0.62858407224842017</v>
       </c>
       <c r="BV21">
-        <v>-1.2926893403990798</v>
+        <v>-1.29268934039908</v>
       </c>
       <c r="BW21">
-        <v>-1.8106408190865895</v>
+        <v>-1.8106408190865897</v>
       </c>
       <c r="BX21">
-        <v>-0.89059190131942512</v>
+        <v>-0.89059190131942545</v>
       </c>
       <c r="BY21">
-        <v>-0.94959195783072203</v>
+        <v>-0.94959195783072214</v>
       </c>
       <c r="BZ21">
-        <v>-1.2703748525987952</v>
+        <v>-1.2703748525987955</v>
       </c>
       <c r="CA21">
-        <v>-0.48399325022573264</v>
+        <v>-0.48399325022573281</v>
       </c>
       <c r="CB21">
-        <v>-1.0829516917021049</v>
+        <v>-1.0829516917021051</v>
       </c>
       <c r="CC21">
-        <v>-0.75935310582714366</v>
+        <v>-0.75935310582714399</v>
       </c>
       <c r="CD21">
         <v>-4.1936702144116138</v>
       </c>
       <c r="CE21">
-        <v>-2.5986772726114888</v>
+        <v>-2.5986772726114884</v>
       </c>
       <c r="CF21">
         <v>-3.0137346709669286</v>
@@ -9834,70 +9834,70 @@
         <v>-2.643219259557394</v>
       </c>
       <c r="CI21">
-        <v>-3.2851591794567234</v>
+        <v>-3.285159179456723</v>
       </c>
       <c r="CJ21">
-        <v>-2.7628783592752382</v>
+        <v>-2.7628783592752377</v>
       </c>
       <c r="CK21">
-        <v>-2.9246701208307337</v>
+        <v>-2.9246701208307333</v>
       </c>
       <c r="CL21">
         <v>-3.2329301399420176</v>
       </c>
       <c r="CM21">
-        <v>-4.0291285887841504</v>
+        <v>-4.0291285801198065</v>
       </c>
       <c r="CN21">
-        <v>-2.926363621143671</v>
+        <v>-2.9263636127951442</v>
       </c>
       <c r="CO21">
-        <v>-2.7644919532412291</v>
+        <v>-2.7644919449757683</v>
       </c>
       <c r="CP21">
-        <v>-2.5323282845935933</v>
+        <v>-2.5323282764733803</v>
       </c>
       <c r="CQ21">
-        <v>-2.257708078891937</v>
+        <v>-2.2577080709932806</v>
       </c>
       <c r="CR21">
-        <v>-3.091194889213865</v>
+        <v>-3.0911948807934984</v>
       </c>
       <c r="CS21">
-        <v>-1.8829015376149834</v>
+        <v>-1.8829015301358496</v>
       </c>
       <c r="CT21">
-        <v>-3.0658150927715848</v>
+        <v>-3.0658150843615228</v>
       </c>
       <c r="CU21">
-        <v>-2.2190508638526736</v>
+        <v>-2.2190508559903814</v>
       </c>
       <c r="CV21">
-        <v>1.0503277785973055</v>
+        <v>1.0503277785973053</v>
       </c>
       <c r="CW21">
         <v>1.0620062022623407</v>
       </c>
       <c r="CX21">
-        <v>1.0569885756990631</v>
+        <v>1.0569885756990627</v>
       </c>
       <c r="CY21">
-        <v>1.0474384816386282</v>
+        <v>1.047438481638628</v>
       </c>
       <c r="CZ21">
-        <v>1.0575652309078922</v>
+        <v>1.0575652309078918</v>
       </c>
       <c r="DA21">
-        <v>1.0556989764104552</v>
+        <v>1.055698976410455</v>
       </c>
       <c r="DB21">
-        <v>1.0545783296347186</v>
+        <v>1.0545783296347184</v>
       </c>
       <c r="DC21">
         <v>7.9515380591652484E-3</v>
       </c>
       <c r="DD21">
-        <v>1.0121545845402236</v>
+        <v>1.0121545845402238</v>
       </c>
       <c r="DE21">
         <v>5.5648532315464329E-3</v>
@@ -9936,25 +9936,25 @@
         <v>1.0789117721924899</v>
       </c>
       <c r="DQ21">
-        <v>1.035488592863268</v>
+        <v>1.0377147864961971</v>
       </c>
       <c r="DR21">
-        <v>0.98172908948306958</v>
+        <v>0.98383970573063806</v>
       </c>
       <c r="DS21">
-        <v>0.97772641318248954</v>
+        <v>0.9798284240890075</v>
       </c>
       <c r="DT21">
-        <v>0.96978999881636829</v>
+        <v>0.97187494725087842</v>
       </c>
       <c r="DU21">
-        <v>0.9820929575241687</v>
+        <v>0.98420435605048096</v>
       </c>
       <c r="DV21">
-        <v>1.0148782235674432</v>
+        <v>1.0170601070329646</v>
       </c>
       <c r="DW21">
-        <v>0.97534940856434638</v>
+        <v>0.97744630915619468</v>
       </c>
       <c r="DX21">
         <v>3085.3873033153154</v>
@@ -9978,10 +9978,10 @@
         <v>34485.165823598007</v>
       </c>
       <c r="EE21">
-        <v>1421.1043143923948</v>
+        <v>1421.1043143923953</v>
       </c>
       <c r="EF21">
-        <v>115521.63070705238</v>
+        <v>115521.63070705239</v>
       </c>
       <c r="EG21">
         <v>-4.8243208496956136</v>
@@ -10013,31 +10013,31 @@
     </row>
     <row r="22" spans="1:145" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>1.0125956583758162</v>
+        <v>1.0124612869319496</v>
       </c>
       <c r="B22">
-        <v>1.1031580000940586</v>
+        <v>1.1030116110274459</v>
       </c>
       <c r="C22">
-        <v>1.0513058270868214</v>
+        <v>1.0511663188035669</v>
       </c>
       <c r="D22">
-        <v>1.0590130413243659</v>
+        <v>1.0588725102937822</v>
       </c>
       <c r="E22">
-        <v>0.98111230849107534</v>
+        <v>0.98098211488773857</v>
       </c>
       <c r="F22">
-        <v>1.1295583022651017</v>
+        <v>1.1294084098783912</v>
       </c>
       <c r="G22">
-        <v>1.0536351898034524</v>
+        <v>1.0534953724137655</v>
       </c>
       <c r="H22">
-        <v>1.3108548668426261</v>
+        <v>1.3106809164017961</v>
       </c>
       <c r="I22">
-        <v>1.0432225982389829</v>
+        <v>1.0430841626001961</v>
       </c>
       <c r="J22">
         <v>6.1497324661685171E-2</v>
@@ -10061,10 +10061,10 @@
         <v>0.61766502826994607</v>
       </c>
       <c r="Q22">
-        <v>4.5364514209022253E-2</v>
+        <v>4.5364514209022266E-2</v>
       </c>
       <c r="R22">
-        <v>0.25684019741481623</v>
+        <v>0.25684019741481617</v>
       </c>
       <c r="S22">
         <v>-2.784438324131246</v>
@@ -10148,16 +10148,16 @@
         <v>-0.94616827196015696</v>
       </c>
       <c r="AT22">
-        <v>-0.58191318919309054</v>
+        <v>-0.58191318919309076</v>
       </c>
       <c r="AU22">
-        <v>-1.7456380912891427</v>
+        <v>-1.7456380912891429</v>
       </c>
       <c r="AV22">
-        <v>-1.779454258810043</v>
+        <v>-1.7794542588100433</v>
       </c>
       <c r="AW22">
-        <v>-1.2191153784460509</v>
+        <v>-1.2191153784460511</v>
       </c>
       <c r="AX22">
         <v>-0.83249444697154817</v>
@@ -10166,13 +10166,13 @@
         <v>-0.6682251112692974</v>
       </c>
       <c r="AZ22">
-        <v>-0.89463340258885016</v>
+        <v>-0.89463340258885038</v>
       </c>
       <c r="BA22">
-        <v>-1.7122362139999245</v>
+        <v>-1.7122362139999248</v>
       </c>
       <c r="BB22">
-        <v>-1.3335660052065077</v>
+        <v>-1.3335660052065079</v>
       </c>
       <c r="BC22">
         <v>-0.61623592049346065</v>
@@ -10229,37 +10229,37 @@
         <v>-1.8220570153373239</v>
       </c>
       <c r="BU22">
-        <v>-0.62858407224841994</v>
+        <v>-0.62858407224842017</v>
       </c>
       <c r="BV22">
-        <v>-1.2926893403990798</v>
+        <v>-1.29268934039908</v>
       </c>
       <c r="BW22">
-        <v>-1.8106408190865895</v>
+        <v>-1.8106408190865897</v>
       </c>
       <c r="BX22">
-        <v>-0.89059190131942512</v>
+        <v>-0.89059190131942545</v>
       </c>
       <c r="BY22">
-        <v>-0.94959195783072203</v>
+        <v>-0.94959195783072214</v>
       </c>
       <c r="BZ22">
-        <v>-1.2703748525987952</v>
+        <v>-1.2703748525987955</v>
       </c>
       <c r="CA22">
-        <v>-0.48399325022573264</v>
+        <v>-0.48399325022573281</v>
       </c>
       <c r="CB22">
-        <v>-1.0829516917021049</v>
+        <v>-1.0829516917021051</v>
       </c>
       <c r="CC22">
-        <v>-0.75935310582714366</v>
+        <v>-0.75935310582714399</v>
       </c>
       <c r="CD22">
         <v>-4.1936702144116138</v>
       </c>
       <c r="CE22">
-        <v>-2.5986772726114888</v>
+        <v>-2.5986772726114884</v>
       </c>
       <c r="CF22">
         <v>-3.0137346709669286</v>
@@ -10271,43 +10271,43 @@
         <v>-2.643219259557394</v>
       </c>
       <c r="CI22">
-        <v>-3.2851591794567234</v>
+        <v>-3.285159179456723</v>
       </c>
       <c r="CJ22">
-        <v>-2.7628783592752382</v>
+        <v>-2.7628783592752377</v>
       </c>
       <c r="CK22">
-        <v>-2.9246701208307337</v>
+        <v>-2.9246701208307333</v>
       </c>
       <c r="CL22">
         <v>-3.2329301399420176</v>
       </c>
       <c r="CM22">
-        <v>-4.0291285887841504</v>
+        <v>-4.0291285801198065</v>
       </c>
       <c r="CN22">
-        <v>-2.926363621143671</v>
+        <v>-2.9263636127951442</v>
       </c>
       <c r="CO22">
-        <v>-2.7644919532412291</v>
+        <v>-2.7644919449757683</v>
       </c>
       <c r="CP22">
-        <v>-2.5323282845935933</v>
+        <v>-2.5323282764733803</v>
       </c>
       <c r="CQ22">
-        <v>-2.257708078891937</v>
+        <v>-2.2577080709932806</v>
       </c>
       <c r="CR22">
-        <v>-3.091194889213865</v>
+        <v>-3.0911948807934984</v>
       </c>
       <c r="CS22">
-        <v>-1.8829015376149834</v>
+        <v>-1.8829015301358496</v>
       </c>
       <c r="CT22">
-        <v>-3.0658150927715848</v>
+        <v>-3.0658150843615228</v>
       </c>
       <c r="CU22">
-        <v>-2.2190508638526736</v>
+        <v>-2.2190508559903814</v>
       </c>
       <c r="CV22">
         <v>1.0549715553991181</v>
@@ -10322,10 +10322,10 @@
         <v>1.0515140381264991</v>
       </c>
       <c r="CZ22">
-        <v>1.0499866086346932</v>
+        <v>1.049986608634693</v>
       </c>
       <c r="DA22">
-        <v>1.0440020997706019</v>
+        <v>1.0440020997706017</v>
       </c>
       <c r="DB22">
         <v>1.0506183406537586</v>
@@ -10334,7 +10334,7 @@
         <v>7.2377248490593897E-3</v>
       </c>
       <c r="DD22">
-        <v>0.99397608530497583</v>
+        <v>0.99397608530497594</v>
       </c>
       <c r="DE22">
         <v>7.3112952815719921E-3</v>
@@ -10373,25 +10373,25 @@
         <v>1.0710646965836113</v>
       </c>
       <c r="DQ22">
-        <v>1.0615059902377344</v>
+        <v>1.0613651283928298</v>
       </c>
       <c r="DR22">
-        <v>0.97865896110144335</v>
+        <v>0.97852909305730518</v>
       </c>
       <c r="DS22">
-        <v>0.97782202935450602</v>
+        <v>0.9776922723712107</v>
       </c>
       <c r="DT22">
-        <v>0.97340689616257459</v>
+        <v>0.97327772506745391</v>
       </c>
       <c r="DU22">
-        <v>0.97934588391614297</v>
+        <v>0.97921592471734709</v>
       </c>
       <c r="DV22">
-        <v>0.99823372545208222</v>
+        <v>0.9981012598367146</v>
       </c>
       <c r="DW22">
-        <v>0.98104043533717167</v>
+        <v>0.98091025127140252</v>
       </c>
       <c r="DX22">
         <v>3677.4875512865292</v>
@@ -10418,7 +10418,7 @@
         <v>1431.1620921335279</v>
       </c>
       <c r="EF22">
-        <v>123738.68329293361</v>
+        <v>123738.68329293364</v>
       </c>
       <c r="EG22">
         <v>-4.8243208496956136</v>
@@ -10450,31 +10450,31 @@
     </row>
     <row r="23" spans="1:145" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>1.1614269078534498</v>
+        <v>1.1556396211693873</v>
       </c>
       <c r="B23">
-        <v>1.4005372135333616</v>
+        <v>1.393558461524425</v>
       </c>
       <c r="C23">
-        <v>1.0822759755308056</v>
+        <v>1.0768830908823468</v>
       </c>
       <c r="D23">
-        <v>1.0926670335396218</v>
+        <v>1.0872223711759739</v>
       </c>
       <c r="E23">
-        <v>0.99561519709443125</v>
+        <v>0.99065413537489189</v>
       </c>
       <c r="F23">
-        <v>1.2272289051497207</v>
+        <v>1.2211137329825839</v>
       </c>
       <c r="G23">
-        <v>1.0862997529901026</v>
+        <v>1.0808868182174798</v>
       </c>
       <c r="H23">
-        <v>1.3093870354745578</v>
+        <v>1.3028624766724108</v>
       </c>
       <c r="I23">
-        <v>1.0533257048275046</v>
+        <v>1.0480770767956336</v>
       </c>
       <c r="J23">
         <v>5.9179736702438902E-2</v>
@@ -10498,10 +10498,10 @@
         <v>0.62944927723674926</v>
       </c>
       <c r="Q23">
-        <v>4.4202728310923443E-2</v>
+        <v>4.420272831092345E-2</v>
       </c>
       <c r="R23">
-        <v>0.2480096684906499</v>
+        <v>0.24800966849064984</v>
       </c>
       <c r="S23">
         <v>-2.784438324131246</v>
@@ -10585,16 +10585,16 @@
         <v>-0.94616827196015696</v>
       </c>
       <c r="AT23">
-        <v>-0.58191318919309054</v>
+        <v>-0.58191318919309076</v>
       </c>
       <c r="AU23">
-        <v>-1.7456380912891427</v>
+        <v>-1.7456380912891429</v>
       </c>
       <c r="AV23">
-        <v>-1.779454258810043</v>
+        <v>-1.7794542588100433</v>
       </c>
       <c r="AW23">
-        <v>-1.2191153784460509</v>
+        <v>-1.2191153784460511</v>
       </c>
       <c r="AX23">
         <v>-0.83249444697154817</v>
@@ -10603,13 +10603,13 @@
         <v>-0.6682251112692974</v>
       </c>
       <c r="AZ23">
-        <v>-0.89463340258885016</v>
+        <v>-0.89463340258885038</v>
       </c>
       <c r="BA23">
-        <v>-1.7122362139999245</v>
+        <v>-1.7122362139999248</v>
       </c>
       <c r="BB23">
-        <v>-1.3335660052065077</v>
+        <v>-1.3335660052065079</v>
       </c>
       <c r="BC23">
         <v>-0.61623592049346065</v>
@@ -10666,37 +10666,37 @@
         <v>-1.8220570153373239</v>
       </c>
       <c r="BU23">
-        <v>-0.62858407224841994</v>
+        <v>-0.62858407224842017</v>
       </c>
       <c r="BV23">
-        <v>-1.2926893403990798</v>
+        <v>-1.29268934039908</v>
       </c>
       <c r="BW23">
-        <v>-1.8106408190865895</v>
+        <v>-1.8106408190865897</v>
       </c>
       <c r="BX23">
-        <v>-0.89059190131942512</v>
+        <v>-0.89059190131942545</v>
       </c>
       <c r="BY23">
-        <v>-0.94959195783072203</v>
+        <v>-0.94959195783072214</v>
       </c>
       <c r="BZ23">
-        <v>-1.2703748525987952</v>
+        <v>-1.2703748525987955</v>
       </c>
       <c r="CA23">
-        <v>-0.48399325022573264</v>
+        <v>-0.48399325022573281</v>
       </c>
       <c r="CB23">
-        <v>-1.0829516917021049</v>
+        <v>-1.0829516917021051</v>
       </c>
       <c r="CC23">
-        <v>-0.75935310582714366</v>
+        <v>-0.75935310582714399</v>
       </c>
       <c r="CD23">
         <v>-4.1936702144116138</v>
       </c>
       <c r="CE23">
-        <v>-2.5986772726114888</v>
+        <v>-2.5986772726114884</v>
       </c>
       <c r="CF23">
         <v>-3.0137346709669286</v>
@@ -10708,61 +10708,61 @@
         <v>-2.643219259557394</v>
       </c>
       <c r="CI23">
-        <v>-3.2851591794567234</v>
+        <v>-3.285159179456723</v>
       </c>
       <c r="CJ23">
-        <v>-2.7628783592752382</v>
+        <v>-2.7628783592752377</v>
       </c>
       <c r="CK23">
-        <v>-2.9246701208307337</v>
+        <v>-2.9246701208307333</v>
       </c>
       <c r="CL23">
         <v>-3.2329301399420176</v>
       </c>
       <c r="CM23">
-        <v>-4.0291285887841504</v>
+        <v>-4.0291285801198065</v>
       </c>
       <c r="CN23">
-        <v>-2.926363621143671</v>
+        <v>-2.9263636127951442</v>
       </c>
       <c r="CO23">
-        <v>-2.7644919532412291</v>
+        <v>-2.7644919449757683</v>
       </c>
       <c r="CP23">
-        <v>-2.5323282845935933</v>
+        <v>-2.5323282764733803</v>
       </c>
       <c r="CQ23">
-        <v>-2.257708078891937</v>
+        <v>-2.2577080709932806</v>
       </c>
       <c r="CR23">
-        <v>-3.091194889213865</v>
+        <v>-3.0911948807934984</v>
       </c>
       <c r="CS23">
-        <v>-1.8829015376149834</v>
+        <v>-1.8829015301358496</v>
       </c>
       <c r="CT23">
-        <v>-3.0658150927715848</v>
+        <v>-3.0658150843615228</v>
       </c>
       <c r="CU23">
-        <v>-2.2190508638526736</v>
+        <v>-2.2190508559903814</v>
       </c>
       <c r="CV23">
-        <v>1.0433500030640825</v>
+        <v>1.0433500030640823</v>
       </c>
       <c r="CW23">
         <v>1.0528302869057302</v>
       </c>
       <c r="CX23">
-        <v>1.0488572210073255</v>
+        <v>1.0488572210073253</v>
       </c>
       <c r="CY23">
-        <v>1.0475477989303414</v>
+        <v>1.0475477989303412</v>
       </c>
       <c r="CZ23">
-        <v>1.0474410783749952</v>
+        <v>1.047441078374995</v>
       </c>
       <c r="DA23">
-        <v>1.0407539704821178</v>
+        <v>1.0407539704821176</v>
       </c>
       <c r="DB23">
         <v>1.0471090902668039</v>
@@ -10810,25 +10810,25 @@
         <v>1.0633792865405929</v>
       </c>
       <c r="DQ23">
-        <v>1.0702256569132802</v>
+        <v>1.0648928179276196</v>
       </c>
       <c r="DR23">
-        <v>0.9882258644097266</v>
+        <v>0.98330162307583624</v>
       </c>
       <c r="DS23">
-        <v>0.98597116689726716</v>
+        <v>0.98105816051996508</v>
       </c>
       <c r="DT23">
-        <v>0.95598068603081809</v>
+        <v>0.95121711954456167</v>
       </c>
       <c r="DU23">
-        <v>0.99236899800664446</v>
+        <v>0.9874241118076027</v>
       </c>
       <c r="DV23">
-        <v>1.0616252805132238</v>
+        <v>1.056335296436022</v>
       </c>
       <c r="DW23">
-        <v>0.98963077809874789</v>
+        <v>0.98469953620526163</v>
       </c>
       <c r="DX23">
         <v>2981.2626293713606</v>
@@ -10855,7 +10855,7 @@
         <v>1520.7566024356615</v>
       </c>
       <c r="EF23">
-        <v>122297.12595132159</v>
+        <v>122297.12595132162</v>
       </c>
       <c r="EG23">
         <v>-4.8243208496956136</v>
@@ -10887,31 +10887,31 @@
     </row>
     <row r="24" spans="1:145" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>1.2522453240055389</v>
+        <v>1.2443146277737354</v>
       </c>
       <c r="B24">
-        <v>1.4358896052720511</v>
+        <v>1.4267958565763947</v>
       </c>
       <c r="C24">
-        <v>1.1188081670023566</v>
+        <v>1.1117225524314234</v>
       </c>
       <c r="D24">
-        <v>1.0587334315204844</v>
+        <v>1.0520282811199333</v>
       </c>
       <c r="E24">
-        <v>1.0050575886119277</v>
+        <v>0.9986923770372067</v>
       </c>
       <c r="F24">
-        <v>1.1468428497270589</v>
+        <v>1.1395796864375298</v>
       </c>
       <c r="G24">
-        <v>1.0645154447708012</v>
+        <v>1.0577736758340757</v>
       </c>
       <c r="H24">
-        <v>1.2893553263455555</v>
+        <v>1.2811896057538457</v>
       </c>
       <c r="I24">
-        <v>1.0792463713148834</v>
+        <v>1.0724113087547797</v>
       </c>
       <c r="J24">
         <v>6.7591599757355222E-2</v>
@@ -10935,10 +10935,10 @@
         <v>0.61270536124174979</v>
       </c>
       <c r="Q24">
-        <v>2.3338115060468397E-2</v>
+        <v>2.3338115060468401E-2</v>
       </c>
       <c r="R24">
-        <v>0.24121229120232804</v>
+        <v>0.24121229120232798</v>
       </c>
       <c r="S24">
         <v>-2.784438324131246</v>
@@ -11022,16 +11022,16 @@
         <v>-0.94616827196015696</v>
       </c>
       <c r="AT24">
-        <v>-0.58191318919309054</v>
+        <v>-0.58191318919309076</v>
       </c>
       <c r="AU24">
-        <v>-1.7456380912891427</v>
+        <v>-1.7456380912891429</v>
       </c>
       <c r="AV24">
-        <v>-1.779454258810043</v>
+        <v>-1.7794542588100433</v>
       </c>
       <c r="AW24">
-        <v>-1.2191153784460509</v>
+        <v>-1.2191153784460511</v>
       </c>
       <c r="AX24">
         <v>-0.83249444697154817</v>
@@ -11040,13 +11040,13 @@
         <v>-0.6682251112692974</v>
       </c>
       <c r="AZ24">
-        <v>-0.89463340258885016</v>
+        <v>-0.89463340258885038</v>
       </c>
       <c r="BA24">
-        <v>-1.7122362139999245</v>
+        <v>-1.7122362139999248</v>
       </c>
       <c r="BB24">
-        <v>-1.3335660052065077</v>
+        <v>-1.3335660052065079</v>
       </c>
       <c r="BC24">
         <v>-0.61623592049346065</v>
@@ -11103,37 +11103,37 @@
         <v>-1.8220570153373239</v>
       </c>
       <c r="BU24">
-        <v>-0.62858407224841994</v>
+        <v>-0.62858407224842017</v>
       </c>
       <c r="BV24">
-        <v>-1.2926893403990798</v>
+        <v>-1.29268934039908</v>
       </c>
       <c r="BW24">
-        <v>-1.8106408190865895</v>
+        <v>-1.8106408190865897</v>
       </c>
       <c r="BX24">
-        <v>-0.89059190131942512</v>
+        <v>-0.89059190131942545</v>
       </c>
       <c r="BY24">
-        <v>-0.94959195783072203</v>
+        <v>-0.94959195783072214</v>
       </c>
       <c r="BZ24">
-        <v>-1.2703748525987952</v>
+        <v>-1.2703748525987955</v>
       </c>
       <c r="CA24">
-        <v>-0.48399325022573264</v>
+        <v>-0.48399325022573281</v>
       </c>
       <c r="CB24">
-        <v>-1.0829516917021049</v>
+        <v>-1.0829516917021051</v>
       </c>
       <c r="CC24">
-        <v>-0.75935310582714366</v>
+        <v>-0.75935310582714399</v>
       </c>
       <c r="CD24">
         <v>-4.1936702144116138</v>
       </c>
       <c r="CE24">
-        <v>-2.5986772726114888</v>
+        <v>-2.5986772726114884</v>
       </c>
       <c r="CF24">
         <v>-3.0137346709669286</v>
@@ -11145,49 +11145,49 @@
         <v>-2.643219259557394</v>
       </c>
       <c r="CI24">
-        <v>-3.2851591794567234</v>
+        <v>-3.285159179456723</v>
       </c>
       <c r="CJ24">
-        <v>-2.7628783592752382</v>
+        <v>-2.7628783592752377</v>
       </c>
       <c r="CK24">
-        <v>-2.9246701208307337</v>
+        <v>-2.9246701208307333</v>
       </c>
       <c r="CL24">
         <v>-3.2329301399420176</v>
       </c>
       <c r="CM24">
-        <v>-4.0291285887841504</v>
+        <v>-4.0291285801198065</v>
       </c>
       <c r="CN24">
-        <v>-2.926363621143671</v>
+        <v>-2.9263636127951442</v>
       </c>
       <c r="CO24">
-        <v>-2.7644919532412291</v>
+        <v>-2.7644919449757683</v>
       </c>
       <c r="CP24">
-        <v>-2.5323282845935933</v>
+        <v>-2.5323282764733803</v>
       </c>
       <c r="CQ24">
-        <v>-2.257708078891937</v>
+        <v>-2.2577080709932806</v>
       </c>
       <c r="CR24">
-        <v>-3.091194889213865</v>
+        <v>-3.0911948807934984</v>
       </c>
       <c r="CS24">
-        <v>-1.8829015376149834</v>
+        <v>-1.8829015301358496</v>
       </c>
       <c r="CT24">
-        <v>-3.0658150927715848</v>
+        <v>-3.0658150843615228</v>
       </c>
       <c r="CU24">
-        <v>-2.2190508638526736</v>
+        <v>-2.2190508559903814</v>
       </c>
       <c r="CV24">
         <v>1.0669950624141176</v>
       </c>
       <c r="CW24">
-        <v>1.0674818631533571</v>
+        <v>1.0674818631533569</v>
       </c>
       <c r="CX24">
         <v>1.0656438503768535</v>
@@ -11199,10 +11199,10 @@
         <v>1.0669926961013394</v>
       </c>
       <c r="DA24">
-        <v>1.0742829458147367</v>
+        <v>1.0742829458147365</v>
       </c>
       <c r="DB24">
-        <v>1.0645566511034958</v>
+        <v>1.0645566511034956</v>
       </c>
       <c r="DC24">
         <v>7.1918306139068669E-3</v>
@@ -11247,25 +11247,25 @@
         <v>1.0677180278658724</v>
       </c>
       <c r="DQ24">
-        <v>1.0900381980190508</v>
+        <v>1.0831347888676397</v>
       </c>
       <c r="DR24">
-        <v>1.0011704396280536</v>
+        <v>0.99482984607123026</v>
       </c>
       <c r="DS24">
-        <v>1.0004950538592958</v>
+        <v>0.99415873764275797</v>
       </c>
       <c r="DT24">
-        <v>0.98482762962546699</v>
+        <v>0.97859053804163598</v>
       </c>
       <c r="DU24">
-        <v>1.0092319795512406</v>
+        <v>1.0028403308033413</v>
       </c>
       <c r="DV24">
-        <v>1.0977769590278781</v>
+        <v>1.0908245389026623</v>
       </c>
       <c r="DW24">
-        <v>1.0033938021866364</v>
+        <v>0.99703912767241021</v>
       </c>
       <c r="DX24">
         <v>3423.1416062611565</v>
@@ -11292,7 +11292,7 @@
         <v>1447.9015016658821</v>
       </c>
       <c r="EF24">
-        <v>128186.53336369932</v>
+        <v>128186.53336369935</v>
       </c>
       <c r="EG24">
         <v>-4.8243208496956136</v>
@@ -11324,31 +11324,31 @@
     </row>
     <row r="25" spans="1:145" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>1.2912010665901279</v>
+        <v>1.2766293451947939</v>
       </c>
       <c r="B25">
-        <v>1.4818278246187273</v>
+        <v>1.4651048038786492</v>
       </c>
       <c r="C25">
-        <v>1.1843294718481709</v>
+        <v>1.1709638392208452</v>
       </c>
       <c r="D25">
-        <v>1.1131474767564764</v>
+        <v>1.1005851614649858</v>
       </c>
       <c r="E25">
-        <v>1.0024998971141528</v>
+        <v>0.99118628409323384</v>
       </c>
       <c r="F25">
-        <v>0.96310235349729623</v>
+        <v>0.95223335754191418</v>
       </c>
       <c r="G25">
-        <v>1.0613184360226928</v>
+        <v>1.0493410322227599</v>
       </c>
       <c r="H25">
-        <v>1.2776863446032884</v>
+        <v>1.2632671422606594</v>
       </c>
       <c r="I25">
-        <v>1.105883709659617</v>
+        <v>1.0934033688902625</v>
       </c>
       <c r="J25">
         <v>7.2933450711301279E-2</v>
@@ -11459,16 +11459,16 @@
         <v>-0.94616827196015696</v>
       </c>
       <c r="AT25">
-        <v>-0.58191318919309054</v>
+        <v>-0.58191318919309076</v>
       </c>
       <c r="AU25">
-        <v>-1.7456380912891427</v>
+        <v>-1.7456380912891429</v>
       </c>
       <c r="AV25">
-        <v>-1.779454258810043</v>
+        <v>-1.7794542588100433</v>
       </c>
       <c r="AW25">
-        <v>-1.2191153784460509</v>
+        <v>-1.2191153784460511</v>
       </c>
       <c r="AX25">
         <v>-0.83249444697154817</v>
@@ -11477,13 +11477,13 @@
         <v>-0.6682251112692974</v>
       </c>
       <c r="AZ25">
-        <v>-0.89463340258885016</v>
+        <v>-0.89463340258885038</v>
       </c>
       <c r="BA25">
-        <v>-1.7122362139999245</v>
+        <v>-1.7122362139999248</v>
       </c>
       <c r="BB25">
-        <v>-1.3335660052065077</v>
+        <v>-1.3335660052065079</v>
       </c>
       <c r="BC25">
         <v>-0.61623592049346065</v>
@@ -11540,37 +11540,37 @@
         <v>-1.8220570153373239</v>
       </c>
       <c r="BU25">
-        <v>-0.62858407224841994</v>
+        <v>-0.62858407224842017</v>
       </c>
       <c r="BV25">
-        <v>-1.2926893403990798</v>
+        <v>-1.29268934039908</v>
       </c>
       <c r="BW25">
-        <v>-1.8106408190865895</v>
+        <v>-1.8106408190865897</v>
       </c>
       <c r="BX25">
-        <v>-0.89059190131942512</v>
+        <v>-0.89059190131942545</v>
       </c>
       <c r="BY25">
-        <v>-0.94959195783072203</v>
+        <v>-0.94959195783072214</v>
       </c>
       <c r="BZ25">
-        <v>-1.2703748525987952</v>
+        <v>-1.2703748525987955</v>
       </c>
       <c r="CA25">
-        <v>-0.48399325022573264</v>
+        <v>-0.48399325022573281</v>
       </c>
       <c r="CB25">
-        <v>-1.0829516917021049</v>
+        <v>-1.0829516917021051</v>
       </c>
       <c r="CC25">
-        <v>-0.75935310582714366</v>
+        <v>-0.75935310582714399</v>
       </c>
       <c r="CD25">
         <v>-4.1936702144116138</v>
       </c>
       <c r="CE25">
-        <v>-2.5986772726114888</v>
+        <v>-2.5986772726114884</v>
       </c>
       <c r="CF25">
         <v>-3.0137346709669286</v>
@@ -11582,43 +11582,43 @@
         <v>-2.643219259557394</v>
       </c>
       <c r="CI25">
-        <v>-3.2851591794567234</v>
+        <v>-3.285159179456723</v>
       </c>
       <c r="CJ25">
-        <v>-2.7628783592752382</v>
+        <v>-2.7628783592752377</v>
       </c>
       <c r="CK25">
-        <v>-2.9246701208307337</v>
+        <v>-2.9246701208307333</v>
       </c>
       <c r="CL25">
         <v>-3.2329301399420176</v>
       </c>
       <c r="CM25">
-        <v>-4.0291285887841504</v>
+        <v>-4.0291285801198065</v>
       </c>
       <c r="CN25">
-        <v>-2.926363621143671</v>
+        <v>-2.9263636127951442</v>
       </c>
       <c r="CO25">
-        <v>-2.7644919532412291</v>
+        <v>-2.7644919449757683</v>
       </c>
       <c r="CP25">
-        <v>-2.5323282845935933</v>
+        <v>-2.5323282764733803</v>
       </c>
       <c r="CQ25">
-        <v>-2.257708078891937</v>
+        <v>-2.2577080709932806</v>
       </c>
       <c r="CR25">
-        <v>-3.091194889213865</v>
+        <v>-3.0911948807934984</v>
       </c>
       <c r="CS25">
-        <v>-1.8829015376149834</v>
+        <v>-1.8829015301358496</v>
       </c>
       <c r="CT25">
-        <v>-3.0658150927715848</v>
+        <v>-3.0658150843615228</v>
       </c>
       <c r="CU25">
-        <v>-2.2190508638526736</v>
+        <v>-2.2190508559903814</v>
       </c>
       <c r="CV25">
         <v>1.0852122555694592</v>
@@ -11627,7 +11627,7 @@
         <v>1.0667920103410837</v>
       </c>
       <c r="CX25">
-        <v>1.0695171995434782</v>
+        <v>1.069517199543478</v>
       </c>
       <c r="CY25">
         <v>1.0786615986114747</v>
@@ -11684,25 +11684,25 @@
         <v>1.0665068166480207</v>
       </c>
       <c r="DQ25">
-        <v>1.119954525877179</v>
+        <v>1.1073153903089106</v>
       </c>
       <c r="DR25">
-        <v>1.0083897403317257</v>
+        <v>0.99700965807015218</v>
       </c>
       <c r="DS25">
-        <v>1.0120771648768416</v>
+        <v>1.0006554685517977</v>
       </c>
       <c r="DT25">
-        <v>1.0153759527991073</v>
+        <v>1.0039170283306014</v>
       </c>
       <c r="DU25">
-        <v>1.0241513795112493</v>
+        <v>1.0125934208361562</v>
       </c>
       <c r="DV25">
-        <v>1.1552864560367517</v>
+        <v>1.1422485854798232</v>
       </c>
       <c r="DW25">
-        <v>1.0156362540050827</v>
+        <v>1.00417439193317</v>
       </c>
       <c r="DX25">
         <v>2810.7924225816655</v>
@@ -11729,7 +11729,7 @@
         <v>1470.8361112912567</v>
       </c>
       <c r="EF25">
-        <v>134172.5960750095</v>
+        <v>134172.59607500953</v>
       </c>
       <c r="EG25">
         <v>-4.8243208496956136</v>
@@ -11761,31 +11761,31 @@
     </row>
     <row r="26" spans="1:145" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>1.3734993264608761</v>
+        <v>1.3547765397212079</v>
       </c>
       <c r="B26">
-        <v>1.6791951876070119</v>
+        <v>1.6563053231664862</v>
       </c>
       <c r="C26">
-        <v>1.2652691616768574</v>
+        <v>1.2480217089653987</v>
       </c>
       <c r="D26">
-        <v>1.0817150818199266</v>
+        <v>1.066969737282931</v>
       </c>
       <c r="E26">
-        <v>1.0206378048612765</v>
+        <v>1.0067250321421957</v>
       </c>
       <c r="F26">
-        <v>0.99875601250551482</v>
+        <v>0.9851415203344227</v>
       </c>
       <c r="G26">
-        <v>1.0554328678780267</v>
+        <v>1.0410457880137547</v>
       </c>
       <c r="H26">
-        <v>1.2844979971430259</v>
+        <v>1.2669884275315082</v>
       </c>
       <c r="I26">
-        <v>1.1222771713662667</v>
+        <v>1.1069789067530389</v>
       </c>
       <c r="J26">
         <v>7.5333070185473749E-2</v>
@@ -11812,7 +11812,7 @@
         <v>3.2707003351200609E-2</v>
       </c>
       <c r="R26">
-        <v>0.26784340081460206</v>
+        <v>0.26784340081460201</v>
       </c>
       <c r="S26">
         <v>-2.784438324131246</v>
@@ -11896,16 +11896,16 @@
         <v>-0.94616827196015696</v>
       </c>
       <c r="AT26">
-        <v>-0.58191318919309054</v>
+        <v>-0.58191318919309076</v>
       </c>
       <c r="AU26">
-        <v>-1.7456380912891427</v>
+        <v>-1.7456380912891429</v>
       </c>
       <c r="AV26">
-        <v>-1.779454258810043</v>
+        <v>-1.7794542588100433</v>
       </c>
       <c r="AW26">
-        <v>-1.2191153784460509</v>
+        <v>-1.2191153784460511</v>
       </c>
       <c r="AX26">
         <v>-0.83249444697154817</v>
@@ -11914,13 +11914,13 @@
         <v>-0.6682251112692974</v>
       </c>
       <c r="AZ26">
-        <v>-0.89463340258885016</v>
+        <v>-0.89463340258885038</v>
       </c>
       <c r="BA26">
-        <v>-1.7122362139999245</v>
+        <v>-1.7122362139999248</v>
       </c>
       <c r="BB26">
-        <v>-1.3335660052065077</v>
+        <v>-1.3335660052065079</v>
       </c>
       <c r="BC26">
         <v>-0.61623592049346065</v>
@@ -11977,37 +11977,37 @@
         <v>-1.8220570153373239</v>
       </c>
       <c r="BU26">
-        <v>-0.62858407224841994</v>
+        <v>-0.62858407224842017</v>
       </c>
       <c r="BV26">
-        <v>-1.2926893403990798</v>
+        <v>-1.29268934039908</v>
       </c>
       <c r="BW26">
-        <v>-1.8106408190865895</v>
+        <v>-1.8106408190865897</v>
       </c>
       <c r="BX26">
-        <v>-0.89059190131942512</v>
+        <v>-0.89059190131942545</v>
       </c>
       <c r="BY26">
-        <v>-0.94959195783072203</v>
+        <v>-0.94959195783072214</v>
       </c>
       <c r="BZ26">
-        <v>-1.2703748525987952</v>
+        <v>-1.2703748525987955</v>
       </c>
       <c r="CA26">
-        <v>-0.48399325022573264</v>
+        <v>-0.48399325022573281</v>
       </c>
       <c r="CB26">
-        <v>-1.0829516917021049</v>
+        <v>-1.0829516917021051</v>
       </c>
       <c r="CC26">
-        <v>-0.75935310582714366</v>
+        <v>-0.75935310582714399</v>
       </c>
       <c r="CD26">
         <v>-4.1936702144116138</v>
       </c>
       <c r="CE26">
-        <v>-2.5986772726114888</v>
+        <v>-2.5986772726114884</v>
       </c>
       <c r="CF26">
         <v>-3.0137346709669286</v>
@@ -12019,64 +12019,64 @@
         <v>-2.643219259557394</v>
       </c>
       <c r="CI26">
-        <v>-3.2851591794567234</v>
+        <v>-3.285159179456723</v>
       </c>
       <c r="CJ26">
-        <v>-2.7628783592752382</v>
+        <v>-2.7628783592752377</v>
       </c>
       <c r="CK26">
-        <v>-2.9246701208307337</v>
+        <v>-2.9246701208307333</v>
       </c>
       <c r="CL26">
         <v>-3.2329301399420176</v>
       </c>
       <c r="CM26">
-        <v>-4.0291285887841504</v>
+        <v>-4.0291285801198065</v>
       </c>
       <c r="CN26">
-        <v>-2.926363621143671</v>
+        <v>-2.9263636127951442</v>
       </c>
       <c r="CO26">
-        <v>-2.7644919532412291</v>
+        <v>-2.7644919449757683</v>
       </c>
       <c r="CP26">
-        <v>-2.5323282845935933</v>
+        <v>-2.5323282764733803</v>
       </c>
       <c r="CQ26">
-        <v>-2.257708078891937</v>
+        <v>-2.2577080709932806</v>
       </c>
       <c r="CR26">
-        <v>-3.091194889213865</v>
+        <v>-3.0911948807934984</v>
       </c>
       <c r="CS26">
-        <v>-1.8829015376149834</v>
+        <v>-1.8829015301358496</v>
       </c>
       <c r="CT26">
-        <v>-3.0658150927715848</v>
+        <v>-3.0658150843615228</v>
       </c>
       <c r="CU26">
-        <v>-2.2190508638526736</v>
+        <v>-2.2190508559903814</v>
       </c>
       <c r="CV26">
-        <v>1.1020475657316542</v>
+        <v>1.102047565731654</v>
       </c>
       <c r="CW26">
-        <v>1.0914047575759001</v>
+        <v>1.0914047575758998</v>
       </c>
       <c r="CX26">
         <v>1.0932086247606099</v>
       </c>
       <c r="CY26">
-        <v>1.10035608279125</v>
+        <v>1.1003560827912495</v>
       </c>
       <c r="CZ26">
         <v>1.0965009677796627</v>
       </c>
       <c r="DA26">
-        <v>1.1107047222415625</v>
+        <v>1.1107047222415622</v>
       </c>
       <c r="DB26">
-        <v>1.0936695305862902</v>
+        <v>1.09366953058629</v>
       </c>
       <c r="DC26">
         <v>5.9429854816346276E-3</v>
@@ -12121,25 +12121,25 @@
         <v>1.0761963915302459</v>
       </c>
       <c r="DQ26">
-        <v>1.1441267389488954</v>
+        <v>1.1285306330580473</v>
       </c>
       <c r="DR26">
-        <v>1.0245561605305635</v>
+        <v>1.0105899749439602</v>
       </c>
       <c r="DS26">
-        <v>1.0271226362182351</v>
+        <v>1.0131214658478414</v>
       </c>
       <c r="DT26">
-        <v>1.0331201500481015</v>
+        <v>1.0190372248706674</v>
       </c>
       <c r="DU26">
-        <v>1.0431415234874823</v>
+        <v>1.02892199246385</v>
       </c>
       <c r="DV26">
-        <v>1.1776638769302392</v>
+        <v>1.1616106112358247</v>
       </c>
       <c r="DW26">
-        <v>1.0302802263210582</v>
+        <v>1.0162360134205608</v>
       </c>
       <c r="DX26">
         <v>2983.1694731176958</v>
